--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179232.3193381281</v>
+        <v>191118.670671861</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1854032.836100644</v>
+        <v>3640792.094707792</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24124066.75146578</v>
+        <v>23449282.73886651</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4324785.659298495</v>
+        <v>4525523.781256439</v>
       </c>
     </row>
     <row r="11">
@@ -8459,10 +8461,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M8" t="n">
-        <v>262.1171336583936</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N8" t="n">
-        <v>260.6727596612894</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O8" t="n">
         <v>246.758517458259</v>
@@ -8532,22 +8534,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>158.8643559162101</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>156.5283879628043</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
-        <v>158.8073274317979</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
-        <v>145.2543769669952</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>160.2613470196622</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>152.4484465568465</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8690,22 +8692,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>210.0462273461148</v>
+        <v>155.446919716826</v>
       </c>
       <c r="L11" t="n">
-        <v>215.1060201295988</v>
+        <v>147.3707510144273</v>
       </c>
       <c r="M11" t="n">
-        <v>200.3199103700812</v>
+        <v>124.9513722903362</v>
       </c>
       <c r="N11" t="n">
-        <v>197.8755926931642</v>
+        <v>121.2875128719083</v>
       </c>
       <c r="O11" t="n">
-        <v>203.2816633332895</v>
+        <v>130.9617113403306</v>
       </c>
       <c r="P11" t="n">
-        <v>208.5255628951208</v>
+        <v>154.2891756195906</v>
       </c>
       <c r="Q11" t="n">
         <v>137.5801139476182</v>
@@ -8769,25 +8771,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>128.4574862423794</v>
+        <v>91.37295083848241</v>
       </c>
       <c r="L12" t="n">
-        <v>115.6425992455544</v>
+        <v>65.7778648790954</v>
       </c>
       <c r="M12" t="n">
-        <v>111.0955404568352</v>
+        <v>52.90574741875142</v>
       </c>
       <c r="N12" t="n">
-        <v>96.27980096165827</v>
+        <v>36.54989725098959</v>
       </c>
       <c r="O12" t="n">
-        <v>115.4591779348292</v>
+        <v>60.81798522344046</v>
       </c>
       <c r="P12" t="n">
-        <v>116.4907560372702</v>
+        <v>72.63638163373737</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>110.0720830017077</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8854,10 +8856,10 @@
         <v>105.2836065989273</v>
       </c>
       <c r="M13" t="n">
-        <v>115.6742602693208</v>
+        <v>106.9915434517933</v>
       </c>
       <c r="N13" t="n">
-        <v>111.3378805152112</v>
+        <v>94.76451196388629</v>
       </c>
       <c r="O13" t="n">
         <v>105.6509998050918</v>
@@ -8927,22 +8929,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L14" t="n">
-        <v>215.1060201295988</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M14" t="n">
-        <v>200.3199103700811</v>
+        <v>105.8098167320196</v>
       </c>
       <c r="N14" t="n">
-        <v>197.8755926931642</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O14" t="n">
-        <v>203.2816633332895</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q14" t="n">
         <v>137.5801139476182</v>
@@ -9006,25 +9008,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>128.4574862423794</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L15" t="n">
-        <v>115.6425992455544</v>
+        <v>53.11358071497432</v>
       </c>
       <c r="M15" t="n">
-        <v>111.0955404568352</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N15" t="n">
-        <v>96.27980096165828</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O15" t="n">
-        <v>115.4591779348292</v>
+        <v>46.94061075518317</v>
       </c>
       <c r="P15" t="n">
-        <v>116.4907560372702</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9088,13 +9090,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>105.2836065989273</v>
+        <v>98.0136535584747</v>
       </c>
       <c r="M16" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326793</v>
       </c>
       <c r="N16" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856661</v>
       </c>
       <c r="O16" t="n">
         <v>105.6509998050918</v>
@@ -9164,22 +9166,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K17" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L17" t="n">
-        <v>215.1060201295988</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M17" t="n">
-        <v>200.3199103700811</v>
+        <v>105.8098167320196</v>
       </c>
       <c r="N17" t="n">
-        <v>197.8755926931642</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O17" t="n">
-        <v>203.2816633332895</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P17" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q17" t="n">
         <v>137.5801139476182</v>
@@ -9243,25 +9245,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>128.4574862423794</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L18" t="n">
-        <v>115.6425992455544</v>
+        <v>53.11358071497432</v>
       </c>
       <c r="M18" t="n">
-        <v>111.0955404568352</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N18" t="n">
-        <v>96.27980096165828</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O18" t="n">
-        <v>115.4591779348292</v>
+        <v>46.94061075518317</v>
       </c>
       <c r="P18" t="n">
-        <v>116.4907560372702</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9325,13 +9327,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>105.2836065989273</v>
+        <v>98.0136535584747</v>
       </c>
       <c r="M19" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326793</v>
       </c>
       <c r="N19" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856661</v>
       </c>
       <c r="O19" t="n">
         <v>105.6509998050918</v>
@@ -9401,22 +9403,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L20" t="n">
-        <v>215.1060201295988</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M20" t="n">
-        <v>200.3199103700811</v>
+        <v>105.8098167320196</v>
       </c>
       <c r="N20" t="n">
-        <v>197.8755926931642</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O20" t="n">
-        <v>203.2816633332895</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P20" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q20" t="n">
         <v>137.5801139476182</v>
@@ -9480,25 +9482,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>128.4574862423794</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L21" t="n">
-        <v>115.6425992455544</v>
+        <v>53.11358071497432</v>
       </c>
       <c r="M21" t="n">
-        <v>111.0955404568352</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N21" t="n">
-        <v>96.27980096165828</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O21" t="n">
-        <v>115.4591779348292</v>
+        <v>46.94061075518317</v>
       </c>
       <c r="P21" t="n">
-        <v>116.4907560372702</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9562,13 +9564,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>105.2836065989273</v>
+        <v>98.0136535584747</v>
       </c>
       <c r="M22" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326793</v>
       </c>
       <c r="N22" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856661</v>
       </c>
       <c r="O22" t="n">
         <v>105.6509998050918</v>
@@ -9638,22 +9640,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K23" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L23" t="n">
-        <v>215.1060201295988</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M23" t="n">
-        <v>200.3199103700811</v>
+        <v>105.8098167320196</v>
       </c>
       <c r="N23" t="n">
-        <v>197.8755926931642</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O23" t="n">
-        <v>203.2816633332895</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P23" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q23" t="n">
         <v>137.5801139476182</v>
@@ -9717,25 +9719,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>128.4574862423794</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L24" t="n">
-        <v>115.6425992455544</v>
+        <v>53.11358071497432</v>
       </c>
       <c r="M24" t="n">
-        <v>111.0955404568352</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N24" t="n">
-        <v>96.27980096165828</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O24" t="n">
-        <v>115.4591779348292</v>
+        <v>46.94061075518317</v>
       </c>
       <c r="P24" t="n">
-        <v>116.4907560372702</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9799,13 +9801,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>105.2836065989273</v>
+        <v>98.0136535584747</v>
       </c>
       <c r="M25" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326793</v>
       </c>
       <c r="N25" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856661</v>
       </c>
       <c r="O25" t="n">
         <v>105.6509998050918</v>
@@ -9875,22 +9877,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L26" t="n">
-        <v>215.1060201295988</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M26" t="n">
-        <v>200.3199103700811</v>
+        <v>105.8098167320196</v>
       </c>
       <c r="N26" t="n">
-        <v>197.8755926931642</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O26" t="n">
-        <v>203.2816633332895</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P26" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q26" t="n">
         <v>137.5801139476182</v>
@@ -9954,25 +9956,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>128.4574862423794</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L27" t="n">
-        <v>115.6425992455544</v>
+        <v>53.11358071497432</v>
       </c>
       <c r="M27" t="n">
-        <v>111.0955404568352</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N27" t="n">
-        <v>96.27980096165828</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O27" t="n">
-        <v>115.4591779348292</v>
+        <v>46.94061075518317</v>
       </c>
       <c r="P27" t="n">
-        <v>116.4907560372702</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10036,13 +10038,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>105.2836065989273</v>
+        <v>98.0136535584747</v>
       </c>
       <c r="M28" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326793</v>
       </c>
       <c r="N28" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856661</v>
       </c>
       <c r="O28" t="n">
         <v>105.6509998050918</v>
@@ -10112,22 +10114,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L29" t="n">
-        <v>215.1060201295988</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M29" t="n">
-        <v>200.3199103700811</v>
+        <v>105.8098167320196</v>
       </c>
       <c r="N29" t="n">
-        <v>197.8755926931642</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O29" t="n">
-        <v>203.2816633332895</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P29" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q29" t="n">
         <v>137.5801139476182</v>
@@ -10191,25 +10193,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>128.4574862423794</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L30" t="n">
-        <v>115.6425992455544</v>
+        <v>53.11358071497432</v>
       </c>
       <c r="M30" t="n">
-        <v>111.0955404568352</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N30" t="n">
-        <v>96.27980096165828</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O30" t="n">
-        <v>115.4591779348292</v>
+        <v>46.94061075518317</v>
       </c>
       <c r="P30" t="n">
-        <v>116.4907560372702</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10273,13 +10275,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>105.2836065989273</v>
+        <v>98.0136535584747</v>
       </c>
       <c r="M31" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326793</v>
       </c>
       <c r="N31" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856661</v>
       </c>
       <c r="O31" t="n">
         <v>105.6509998050918</v>
@@ -10349,22 +10351,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L32" t="n">
-        <v>215.1060201295988</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M32" t="n">
-        <v>200.3199103700811</v>
+        <v>105.8098167320196</v>
       </c>
       <c r="N32" t="n">
-        <v>197.8755926931642</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O32" t="n">
-        <v>203.2816633332895</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P32" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q32" t="n">
         <v>137.5801139476182</v>
@@ -10428,25 +10430,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>128.4574862423794</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L33" t="n">
-        <v>115.6425992455544</v>
+        <v>53.11358071497432</v>
       </c>
       <c r="M33" t="n">
-        <v>111.0955404568352</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N33" t="n">
-        <v>96.27980096165828</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O33" t="n">
-        <v>115.4591779348292</v>
+        <v>46.94061075518317</v>
       </c>
       <c r="P33" t="n">
-        <v>116.4907560372702</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10510,13 +10512,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>105.2836065989273</v>
+        <v>98.0136535584747</v>
       </c>
       <c r="M34" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326793</v>
       </c>
       <c r="N34" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856661</v>
       </c>
       <c r="O34" t="n">
         <v>105.6509998050918</v>
@@ -10586,22 +10588,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L35" t="n">
-        <v>215.1060201295988</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M35" t="n">
-        <v>200.3199103700811</v>
+        <v>105.8098167320196</v>
       </c>
       <c r="N35" t="n">
-        <v>197.8755926931642</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O35" t="n">
-        <v>203.2816633332895</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P35" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q35" t="n">
         <v>137.5801139476182</v>
@@ -10665,25 +10667,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>128.4574862423794</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L36" t="n">
-        <v>115.6425992455544</v>
+        <v>53.11358071497432</v>
       </c>
       <c r="M36" t="n">
-        <v>111.0955404568352</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N36" t="n">
-        <v>96.27980096165828</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O36" t="n">
-        <v>115.4591779348292</v>
+        <v>46.94061075518317</v>
       </c>
       <c r="P36" t="n">
-        <v>116.4907560372702</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q36" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10747,13 +10749,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>105.2836065989273</v>
+        <v>98.0136535584747</v>
       </c>
       <c r="M37" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326793</v>
       </c>
       <c r="N37" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856661</v>
       </c>
       <c r="O37" t="n">
         <v>105.6509998050918</v>
@@ -10823,22 +10825,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L38" t="n">
-        <v>215.1060201295988</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M38" t="n">
-        <v>200.3199103700811</v>
+        <v>105.8098167320196</v>
       </c>
       <c r="N38" t="n">
-        <v>197.8755926931642</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O38" t="n">
-        <v>203.2816633332895</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P38" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
@@ -10902,25 +10904,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>128.4574862423794</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L39" t="n">
-        <v>115.6425992455544</v>
+        <v>53.11358071497432</v>
       </c>
       <c r="M39" t="n">
-        <v>111.0955404568352</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N39" t="n">
-        <v>96.27980096165828</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O39" t="n">
-        <v>115.4591779348292</v>
+        <v>46.94061075518317</v>
       </c>
       <c r="P39" t="n">
-        <v>116.4907560372702</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10984,13 +10986,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>105.2836065989273</v>
+        <v>98.0136535584747</v>
       </c>
       <c r="M40" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326793</v>
       </c>
       <c r="N40" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856661</v>
       </c>
       <c r="O40" t="n">
         <v>105.6509998050918</v>
@@ -11060,22 +11062,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>210.0462273461148</v>
+        <v>141.5801829184308</v>
       </c>
       <c r="L41" t="n">
-        <v>215.1060201295988</v>
+        <v>130.1678378352738</v>
       </c>
       <c r="M41" t="n">
-        <v>200.3199103700811</v>
+        <v>105.8098167320196</v>
       </c>
       <c r="N41" t="n">
-        <v>197.8755926931642</v>
+        <v>101.836226932778</v>
       </c>
       <c r="O41" t="n">
-        <v>203.2816633332895</v>
+        <v>112.5944136015407</v>
       </c>
       <c r="P41" t="n">
-        <v>208.5255628951208</v>
+        <v>138.613111941985</v>
       </c>
       <c r="Q41" t="n">
         <v>137.5801139476182</v>
@@ -11139,25 +11141,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>128.4574862423794</v>
+        <v>81.95448906552117</v>
       </c>
       <c r="L42" t="n">
-        <v>115.6425992455544</v>
+        <v>53.11358071497432</v>
       </c>
       <c r="M42" t="n">
-        <v>111.0955404568352</v>
+        <v>38.12712513491596</v>
       </c>
       <c r="N42" t="n">
-        <v>96.27980096165828</v>
+        <v>21.38012881046407</v>
       </c>
       <c r="O42" t="n">
-        <v>115.4591779348292</v>
+        <v>46.94061075518317</v>
       </c>
       <c r="P42" t="n">
-        <v>116.4907560372702</v>
+        <v>61.49856517201626</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>102.6267476555289</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11221,13 +11223,13 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>105.2836065989273</v>
+        <v>98.0136535584747</v>
       </c>
       <c r="M43" t="n">
-        <v>115.6742602693208</v>
+        <v>99.32639729326793</v>
       </c>
       <c r="N43" t="n">
-        <v>111.3378805152112</v>
+        <v>87.28162584856661</v>
       </c>
       <c r="O43" t="n">
         <v>105.6509998050918</v>
@@ -11297,22 +11299,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461148</v>
+        <v>111.0988064408343</v>
       </c>
       <c r="L44" t="n">
-        <v>215.1060201295988</v>
+        <v>92.35299496713264</v>
       </c>
       <c r="M44" t="n">
-        <v>200.3199103700811</v>
+        <v>63.73351790103578</v>
       </c>
       <c r="N44" t="n">
-        <v>197.8755926931642</v>
+        <v>59.07908959729269</v>
       </c>
       <c r="O44" t="n">
-        <v>203.2816633332895</v>
+        <v>72.2200612653113</v>
       </c>
       <c r="P44" t="n">
-        <v>208.5255628951208</v>
+        <v>104.1545363166676</v>
       </c>
       <c r="Q44" t="n">
         <v>137.5801139476182</v>
@@ -11376,25 +11378,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>128.4574862423794</v>
+        <v>61.25115537459055</v>
       </c>
       <c r="L45" t="n">
-        <v>115.6425992455544</v>
+        <v>25.27539361745087</v>
       </c>
       <c r="M45" t="n">
-        <v>111.0955404568352</v>
+        <v>5.64127383456389</v>
       </c>
       <c r="N45" t="n">
-        <v>96.27980096165828</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>115.4591779348292</v>
+        <v>16.43585092326006</v>
       </c>
       <c r="P45" t="n">
-        <v>116.4907560372702</v>
+        <v>37.01580605976547</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>86.2606715564213</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11458,16 +11460,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>105.2836065989273</v>
+        <v>82.03309671786837</v>
       </c>
       <c r="M46" t="n">
-        <v>115.6742602693208</v>
+        <v>82.47714074425393</v>
       </c>
       <c r="N46" t="n">
-        <v>111.3378805152112</v>
+        <v>70.83300696034803</v>
       </c>
       <c r="O46" t="n">
-        <v>105.6509998050918</v>
+        <v>90.45803797570775</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
@@ -23033,22 +23035,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>419.1372257337943</v>
+        <v>419.2448920946117</v>
       </c>
       <c r="H8" t="n">
-        <v>350.0840728010472</v>
+        <v>351.1867109187684</v>
       </c>
       <c r="I8" t="n">
-        <v>252.5390011750733</v>
+        <v>256.6898085504863</v>
       </c>
       <c r="J8" t="n">
-        <v>102.1633490996273</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
-        <v>44.76782608393461</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23057,25 +23059,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.82072992502536</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>58.0961346578143</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>122.0060719774896</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
-        <v>213.6669190178523</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
-        <v>234.3316595809324</v>
+        <v>236.785106778059</v>
       </c>
       <c r="T8" t="n">
-        <v>223.7749849055099</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U8" t="n">
-        <v>250.1744657143414</v>
+        <v>250.1830790232068</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23112,16 +23114,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9046118134526</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>127.2808586212757</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>112.8724349482959</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>67.59235497006948</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23142,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.29425231795664</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>144.6542915277517</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>194.5628574600357</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>215.61586546681</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2385962954956</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23191,49 +23193,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.8349197050291</v>
+        <v>168.883215127945</v>
       </c>
       <c r="H10" t="n">
-        <v>167.0170666797881</v>
+        <v>167.4464568944399</v>
       </c>
       <c r="I10" t="n">
-        <v>168.8870673881104</v>
+        <v>170.3394424699794</v>
       </c>
       <c r="J10" t="n">
-        <v>129.7236433787886</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K10" t="n">
-        <v>82.61516433249618</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L10" t="n">
-        <v>52.09548622449577</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M10" t="n">
-        <v>46.24466908004986</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N10" t="n">
-        <v>37.04796687835205</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O10" t="n">
-        <v>56.43963860165199</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P10" t="n">
-        <v>74.70280003544025</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.4497818638882</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R10" t="n">
-        <v>209.4615981681609</v>
+        <v>211.6331360021768</v>
       </c>
       <c r="S10" t="n">
-        <v>237.7758219951765</v>
+        <v>238.6174795018098</v>
       </c>
       <c r="T10" t="n">
-        <v>224.3347225012506</v>
+        <v>224.541075671891</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6638739564498</v>
+        <v>288.6665082522452</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -23270,16 +23272,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>418.7852877910533</v>
+        <v>418.3560606053038</v>
       </c>
       <c r="H11" t="n">
-        <v>346.4797883449514</v>
+        <v>342.0839654288939</v>
       </c>
       <c r="I11" t="n">
-        <v>238.9709136375527</v>
+        <v>222.4231325589433</v>
       </c>
       <c r="J11" t="n">
-        <v>72.29305613191724</v>
+        <v>35.86293527540671</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23297,22 +23299,22 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>84.00073346332248</v>
+        <v>37.64902620821118</v>
       </c>
       <c r="R11" t="n">
-        <v>191.5594972221508</v>
+        <v>164.5970550153109</v>
       </c>
       <c r="S11" t="n">
-        <v>226.3118737107229</v>
+        <v>216.5308592154551</v>
       </c>
       <c r="T11" t="n">
-        <v>222.2343765611613</v>
+        <v>220.3554345555427</v>
       </c>
       <c r="U11" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1119725040622</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7163084132398</v>
+        <v>148.4866516222985</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4622442034314</v>
+        <v>123.2442430909186</v>
       </c>
       <c r="I12" t="n">
-        <v>106.3891819146546</v>
+        <v>98.4821388932082</v>
       </c>
       <c r="J12" t="n">
-        <v>49.80181311049407</v>
+        <v>28.10428269966904</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>132.9629628724363</v>
+        <v>118.7040965015325</v>
       </c>
       <c r="S12" t="n">
-        <v>191.0652043902942</v>
+        <v>186.7994302252209</v>
       </c>
       <c r="T12" t="n">
-        <v>214.8568706212155</v>
+        <v>213.9311925910615</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2110989144986</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6770524598119</v>
+        <v>168.4845159209583</v>
       </c>
       <c r="H13" t="n">
-        <v>165.6134833541297</v>
+        <v>163.9016584905037</v>
       </c>
       <c r="I13" t="n">
-        <v>164.1395687773966</v>
+        <v>158.3494699544163</v>
       </c>
       <c r="J13" t="n">
-        <v>118.5624291419324</v>
+        <v>104.9500958449802</v>
       </c>
       <c r="K13" t="n">
-        <v>64.27386075180667</v>
+        <v>41.90461560135667</v>
       </c>
       <c r="L13" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>34.12582106858778</v>
+        <v>6.911656467711651</v>
       </c>
       <c r="P13" t="n">
-        <v>55.60947430480697</v>
+        <v>32.3230550965451</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.2305528121096</v>
+        <v>109.1082431813745</v>
       </c>
       <c r="R13" t="n">
-        <v>202.3633127604856</v>
+        <v>193.7061698407575</v>
       </c>
       <c r="S13" t="n">
-        <v>235.0246264580731</v>
+        <v>231.6692396855056</v>
       </c>
       <c r="T13" t="n">
-        <v>223.6601988171407</v>
+        <v>222.8375426965842</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6447610227732</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,16 +23509,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>418.7852877910533</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H14" t="n">
-        <v>346.4797883449514</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I14" t="n">
-        <v>238.9709136375527</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J14" t="n">
-        <v>72.29305613191724</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23534,22 +23536,22 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>84.00073346332248</v>
+        <v>25.87695523201987</v>
       </c>
       <c r="R14" t="n">
-        <v>191.5594972221508</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S14" t="n">
-        <v>226.3118737107229</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T14" t="n">
-        <v>222.2343765611613</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U14" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7163084132398</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4622442034314</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I15" t="n">
-        <v>106.3891819146546</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J15" t="n">
-        <v>49.80181311049407</v>
+        <v>22.59370103762818</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>132.9629628724363</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S15" t="n">
-        <v>191.0652043902942</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T15" t="n">
-        <v>214.8568706212155</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6770524598119</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H16" t="n">
-        <v>165.6134833541297</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I16" t="n">
-        <v>164.1395687773966</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J16" t="n">
-        <v>118.5624291419324</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K16" t="n">
-        <v>64.27386075180667</v>
+        <v>36.22343669362867</v>
       </c>
       <c r="L16" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>55.60947430480697</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.2305528121096</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R16" t="n">
-        <v>202.3633127604856</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S16" t="n">
-        <v>235.0246264580731</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T16" t="n">
-        <v>223.6601988171407</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,16 +23746,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>418.7852877910533</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H17" t="n">
-        <v>346.4797883449514</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I17" t="n">
-        <v>238.9709136375527</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J17" t="n">
-        <v>72.29305613191724</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23771,22 +23773,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>84.00073346332248</v>
+        <v>25.87695523201987</v>
       </c>
       <c r="R17" t="n">
-        <v>191.5594972221508</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S17" t="n">
-        <v>226.3118737107229</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T17" t="n">
-        <v>222.2343765611613</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7163084132398</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4622442034314</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I18" t="n">
-        <v>106.3891819146546</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J18" t="n">
-        <v>49.80181311049407</v>
+        <v>22.59370103762818</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>132.9629628724363</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S18" t="n">
-        <v>191.0652043902942</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T18" t="n">
-        <v>214.8568706212155</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.6770524598119</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H19" t="n">
-        <v>165.6134833541297</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I19" t="n">
-        <v>164.1395687773966</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J19" t="n">
-        <v>118.5624291419324</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K19" t="n">
-        <v>64.27386075180667</v>
+        <v>36.22343669362867</v>
       </c>
       <c r="L19" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>55.60947430480697</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.2305528121096</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R19" t="n">
-        <v>202.3633127604856</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S19" t="n">
-        <v>235.0246264580731</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T19" t="n">
-        <v>223.6601988171407</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,16 +23983,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>418.7852877910533</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H20" t="n">
-        <v>346.4797883449514</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I20" t="n">
-        <v>238.9709136375527</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J20" t="n">
-        <v>72.29305613191724</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24008,22 +24010,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>84.00073346332248</v>
+        <v>25.87695523201987</v>
       </c>
       <c r="R20" t="n">
-        <v>191.5594972221508</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S20" t="n">
-        <v>226.3118737107229</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T20" t="n">
-        <v>222.2343765611613</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7163084132398</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4622442034314</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I21" t="n">
-        <v>106.3891819146546</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J21" t="n">
-        <v>49.80181311049407</v>
+        <v>22.59370103762818</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>132.9629628724363</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S21" t="n">
-        <v>191.0652043902942</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T21" t="n">
-        <v>214.8568706212155</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.6770524598119</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H22" t="n">
-        <v>165.6134833541297</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I22" t="n">
-        <v>164.1395687773966</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J22" t="n">
-        <v>118.5624291419324</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K22" t="n">
-        <v>64.27386075180667</v>
+        <v>36.22343669362867</v>
       </c>
       <c r="L22" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>55.60947430480697</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.2305528121096</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R22" t="n">
-        <v>202.3633127604856</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S22" t="n">
-        <v>235.0246264580731</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T22" t="n">
-        <v>223.6601988171407</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,16 +24220,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>418.7852877910533</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4797883449514</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I23" t="n">
-        <v>238.9709136375527</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J23" t="n">
-        <v>72.29305613191724</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24245,22 +24247,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>84.00073346332248</v>
+        <v>25.87695523201987</v>
       </c>
       <c r="R23" t="n">
-        <v>191.5594972221508</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S23" t="n">
-        <v>226.3118737107229</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T23" t="n">
-        <v>222.2343765611613</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7163084132398</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4622442034314</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I24" t="n">
-        <v>106.3891819146546</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J24" t="n">
-        <v>49.80181311049407</v>
+        <v>22.59370103762818</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>132.9629628724363</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S24" t="n">
-        <v>191.0652043902942</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T24" t="n">
-        <v>214.8568706212155</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.6770524598119</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H25" t="n">
-        <v>165.6134833541297</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I25" t="n">
-        <v>164.1395687773966</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5624291419324</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K25" t="n">
-        <v>64.27386075180667</v>
+        <v>36.22343669362867</v>
       </c>
       <c r="L25" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>55.60947430480697</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.2305528121096</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R25" t="n">
-        <v>202.3633127604856</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S25" t="n">
-        <v>235.0246264580731</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T25" t="n">
-        <v>223.6601988171407</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,16 +24457,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>418.7852877910533</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H26" t="n">
-        <v>346.4797883449514</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I26" t="n">
-        <v>238.9709136375527</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J26" t="n">
-        <v>72.29305613191724</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24482,22 +24484,22 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>84.00073346332248</v>
+        <v>25.87695523201987</v>
       </c>
       <c r="R26" t="n">
-        <v>191.5594972221508</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S26" t="n">
-        <v>226.3118737107229</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T26" t="n">
-        <v>222.2343765611613</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7163084132398</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4622442034314</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I27" t="n">
-        <v>106.3891819146546</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J27" t="n">
-        <v>49.80181311049407</v>
+        <v>22.59370103762818</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>132.9629628724363</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S27" t="n">
-        <v>191.0652043902942</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T27" t="n">
-        <v>214.8568706212155</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6770524598119</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H28" t="n">
-        <v>165.6134833541297</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I28" t="n">
-        <v>164.1395687773966</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J28" t="n">
-        <v>118.5624291419324</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K28" t="n">
-        <v>64.27386075180667</v>
+        <v>36.22343669362867</v>
       </c>
       <c r="L28" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>55.60947430480697</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.2305528121096</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R28" t="n">
-        <v>202.3633127604856</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S28" t="n">
-        <v>235.0246264580731</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T28" t="n">
-        <v>223.6601988171407</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,16 +24694,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>418.7852877910533</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H29" t="n">
-        <v>346.4797883449514</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I29" t="n">
-        <v>238.9709136375527</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J29" t="n">
-        <v>72.29305613191724</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24719,22 +24721,22 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>84.00073346332248</v>
+        <v>25.87695523201987</v>
       </c>
       <c r="R29" t="n">
-        <v>191.5594972221508</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S29" t="n">
-        <v>226.3118737107229</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T29" t="n">
-        <v>222.2343765611613</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7163084132398</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4622442034314</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I30" t="n">
-        <v>106.3891819146546</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J30" t="n">
-        <v>49.80181311049407</v>
+        <v>22.59370103762818</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>132.9629628724363</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S30" t="n">
-        <v>191.0652043902942</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T30" t="n">
-        <v>214.8568706212155</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.6770524598119</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H31" t="n">
-        <v>165.6134833541297</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I31" t="n">
-        <v>164.1395687773966</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J31" t="n">
-        <v>118.5624291419324</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K31" t="n">
-        <v>64.27386075180667</v>
+        <v>36.22343669362867</v>
       </c>
       <c r="L31" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>55.60947430480697</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.2305528121096</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R31" t="n">
-        <v>202.3633127604856</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S31" t="n">
-        <v>235.0246264580731</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T31" t="n">
-        <v>223.6601988171407</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,16 +24931,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>418.7852877910533</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H32" t="n">
-        <v>346.4797883449514</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I32" t="n">
-        <v>238.9709136375527</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J32" t="n">
-        <v>72.29305613191724</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24956,22 +24958,22 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>84.00073346332248</v>
+        <v>25.87695523201987</v>
       </c>
       <c r="R32" t="n">
-        <v>191.5594972221508</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S32" t="n">
-        <v>226.3118737107229</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T32" t="n">
-        <v>222.2343765611613</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7163084132398</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4622442034314</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I33" t="n">
-        <v>106.3891819146546</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J33" t="n">
-        <v>49.80181311049407</v>
+        <v>22.59370103762818</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>132.9629628724363</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S33" t="n">
-        <v>191.0652043902942</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T33" t="n">
-        <v>214.8568706212155</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.6770524598119</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H34" t="n">
-        <v>165.6134833541297</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I34" t="n">
-        <v>164.1395687773966</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J34" t="n">
-        <v>118.5624291419324</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K34" t="n">
-        <v>64.27386075180667</v>
+        <v>36.22343669362867</v>
       </c>
       <c r="L34" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>55.60947430480697</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.2305528121096</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R34" t="n">
-        <v>202.3633127604856</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S34" t="n">
-        <v>235.0246264580731</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T34" t="n">
-        <v>223.6601988171407</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,16 +25168,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>418.7852877910533</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H35" t="n">
-        <v>346.4797883449514</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I35" t="n">
-        <v>238.9709136375527</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J35" t="n">
-        <v>72.29305613191724</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25193,22 +25195,22 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>84.00073346332248</v>
+        <v>25.87695523201987</v>
       </c>
       <c r="R35" t="n">
-        <v>191.5594972221508</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S35" t="n">
-        <v>226.3118737107229</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T35" t="n">
-        <v>222.2343765611613</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7163084132398</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4622442034314</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I36" t="n">
-        <v>106.3891819146546</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J36" t="n">
-        <v>49.80181311049407</v>
+        <v>22.59370103762818</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>132.9629628724363</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S36" t="n">
-        <v>191.0652043902942</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T36" t="n">
-        <v>214.8568706212155</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.6770524598119</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H37" t="n">
-        <v>165.6134833541297</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I37" t="n">
-        <v>164.1395687773966</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J37" t="n">
-        <v>118.5624291419324</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K37" t="n">
-        <v>64.27386075180667</v>
+        <v>36.22343669362867</v>
       </c>
       <c r="L37" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>55.60947430480697</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.2305528121096</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R37" t="n">
-        <v>202.3633127604856</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S37" t="n">
-        <v>235.0246264580731</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T37" t="n">
-        <v>223.6601988171407</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,16 +25405,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>418.7852877910533</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H38" t="n">
-        <v>346.4797883449514</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I38" t="n">
-        <v>238.9709136375527</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J38" t="n">
-        <v>72.29305613191724</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25430,22 +25432,22 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>84.00073346332248</v>
+        <v>25.87695523201987</v>
       </c>
       <c r="R38" t="n">
-        <v>191.5594972221508</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S38" t="n">
-        <v>226.3118737107229</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T38" t="n">
-        <v>222.2343765611613</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7163084132398</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4622442034314</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I39" t="n">
-        <v>106.3891819146546</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J39" t="n">
-        <v>49.80181311049407</v>
+        <v>22.59370103762818</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>132.9629628724363</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S39" t="n">
-        <v>191.0652043902942</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T39" t="n">
-        <v>214.8568706212155</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.6770524598119</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H40" t="n">
-        <v>165.6134833541297</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I40" t="n">
-        <v>164.1395687773966</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J40" t="n">
-        <v>118.5624291419324</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K40" t="n">
-        <v>64.27386075180667</v>
+        <v>36.22343669362867</v>
       </c>
       <c r="L40" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>55.60947430480697</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.2305528121096</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R40" t="n">
-        <v>202.3633127604856</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S40" t="n">
-        <v>235.0246264580731</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T40" t="n">
-        <v>223.6601988171407</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,16 +25642,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>418.7852877910533</v>
+        <v>418.2470485926989</v>
       </c>
       <c r="H41" t="n">
-        <v>346.4797883449514</v>
+        <v>340.9675461548035</v>
       </c>
       <c r="I41" t="n">
-        <v>238.9709136375527</v>
+        <v>218.2204469429915</v>
       </c>
       <c r="J41" t="n">
-        <v>72.29305613191724</v>
+        <v>26.6106769705785</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25667,22 +25669,22 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>84.00073346332248</v>
+        <v>25.87695523201987</v>
       </c>
       <c r="R41" t="n">
-        <v>191.5594972221508</v>
+        <v>157.7493291785161</v>
       </c>
       <c r="S41" t="n">
-        <v>226.3118737107229</v>
+        <v>214.0467479782201</v>
       </c>
       <c r="T41" t="n">
-        <v>222.2343765611613</v>
+        <v>219.8782344703646</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1463106789221</v>
+        <v>250.1032515430538</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7163084132398</v>
+        <v>148.4283250534787</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4622442034314</v>
+        <v>122.6809312288967</v>
       </c>
       <c r="I42" t="n">
-        <v>106.3891819146546</v>
+        <v>96.47396536147706</v>
       </c>
       <c r="J42" t="n">
-        <v>49.80181311049407</v>
+        <v>22.59370103762818</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>132.9629628724363</v>
+        <v>115.0827328690247</v>
       </c>
       <c r="S42" t="n">
-        <v>191.0652043902942</v>
+        <v>185.7160397912233</v>
       </c>
       <c r="T42" t="n">
-        <v>214.8568706212155</v>
+        <v>213.6960955877926</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2262079139026</v>
+        <v>237.2072616402341</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.6770524598119</v>
+        <v>168.4356168849763</v>
       </c>
       <c r="H43" t="n">
-        <v>165.6134833541297</v>
+        <v>163.4669016069546</v>
       </c>
       <c r="I43" t="n">
-        <v>164.1395687773966</v>
+        <v>156.8789425814301</v>
       </c>
       <c r="J43" t="n">
-        <v>118.5624291419324</v>
+        <v>101.4929340010521</v>
       </c>
       <c r="K43" t="n">
-        <v>64.27386075180667</v>
+        <v>36.22343669362867</v>
       </c>
       <c r="L43" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>55.60947430480697</v>
+        <v>26.40893896286644</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.2305528121096</v>
+        <v>105.0136157229173</v>
       </c>
       <c r="R43" t="n">
-        <v>202.3633127604856</v>
+        <v>191.50749136833</v>
       </c>
       <c r="S43" t="n">
-        <v>235.0246264580731</v>
+        <v>230.8170628493464</v>
       </c>
       <c r="T43" t="n">
-        <v>223.6601988171407</v>
+        <v>222.6286104519338</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6420938026287</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,16 +25879,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>418.7852877910533</v>
+        <v>418.0074221942822</v>
       </c>
       <c r="H44" t="n">
-        <v>346.4797883449514</v>
+        <v>338.5134723020187</v>
       </c>
       <c r="I44" t="n">
-        <v>238.9709136375527</v>
+        <v>208.9822502180322</v>
       </c>
       <c r="J44" t="n">
-        <v>72.29305613191724</v>
+        <v>6.272685937960304</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25904,22 +25906,22 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>7.487018569236724</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>84.00073346332248</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>191.5594972221508</v>
+        <v>142.6968974289739</v>
       </c>
       <c r="S44" t="n">
-        <v>226.3118737107229</v>
+        <v>208.5862614242999</v>
       </c>
       <c r="T44" t="n">
-        <v>222.2343765611613</v>
+        <v>218.8292699112955</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1463106789221</v>
+        <v>250.0840814311804</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7163084132398</v>
+        <v>148.3001136271938</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4622442034314</v>
+        <v>121.4426787697765</v>
       </c>
       <c r="I45" t="n">
-        <v>106.3891819146546</v>
+        <v>92.05966844771967</v>
       </c>
       <c r="J45" t="n">
-        <v>49.80181311049407</v>
+        <v>10.48053290778771</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.257488459218298</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>132.9629628724363</v>
+        <v>107.1223778230184</v>
       </c>
       <c r="S45" t="n">
-        <v>191.0652043902942</v>
+        <v>183.3345687810625</v>
       </c>
       <c r="T45" t="n">
-        <v>214.8568706212155</v>
+        <v>213.1793135669336</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2262079139026</v>
+        <v>237.1988266779785</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.6770524598119</v>
+        <v>168.3281287320799</v>
       </c>
       <c r="H46" t="n">
-        <v>165.6134833541297</v>
+        <v>162.5112342112035</v>
       </c>
       <c r="I46" t="n">
-        <v>164.1395687773966</v>
+        <v>153.6464806743293</v>
       </c>
       <c r="J46" t="n">
-        <v>118.5624291419324</v>
+        <v>93.89352159128109</v>
       </c>
       <c r="K46" t="n">
-        <v>64.27386075180667</v>
+        <v>23.73526765712697</v>
       </c>
       <c r="L46" t="n">
-        <v>28.62493233102187</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>21.49826081386603</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>12.88997288979596</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>34.12582106858778</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>55.60947430480697</v>
+        <v>13.40873545256763</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.2305528121096</v>
+        <v>96.01294866538856</v>
       </c>
       <c r="R46" t="n">
-        <v>202.3633127604856</v>
+        <v>186.6744331481002</v>
       </c>
       <c r="S46" t="n">
-        <v>235.0246264580731</v>
+        <v>228.9438374938711</v>
       </c>
       <c r="T46" t="n">
-        <v>223.6601988171407</v>
+        <v>222.1693428895585</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6552630158016</v>
+        <v>288.6362308124707</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>352174.3601273391</v>
+        <v>338464.1992716803</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>384379.3086612415</v>
+        <v>404600.4499291928</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>384379.3086612415</v>
+        <v>408823.2298473756</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>384379.3086612415</v>
+        <v>408823.2298473756</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>384379.3086612415</v>
+        <v>408823.2298473756</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>384379.3086612415</v>
+        <v>408823.2298473756</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>384379.3086612415</v>
+        <v>408823.2298473756</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>384379.3086612415</v>
+        <v>408823.2298473756</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>384379.3086612415</v>
+        <v>408823.2298473756</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>384379.3086612415</v>
+        <v>408823.2298473756</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>384379.3086612415</v>
+        <v>408823.2298473756</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>384379.3086612415</v>
+        <v>408823.2298473756</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>384379.3086612415</v>
+        <v>417598.2881787008</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>63462.03736344008</v>
       </c>
       <c r="D2" t="n">
-        <v>66492.91400965818</v>
+        <v>63462.03736344008</v>
       </c>
       <c r="E2" t="n">
-        <v>74035.70591258175</v>
+        <v>79661.90798995418</v>
       </c>
       <c r="F2" t="n">
-        <v>74035.70591258173</v>
+        <v>80919.65271928947</v>
       </c>
       <c r="G2" t="n">
-        <v>74035.70591258173</v>
+        <v>80919.65271928946</v>
       </c>
       <c r="H2" t="n">
-        <v>74035.70591258175</v>
+        <v>80919.65271928946</v>
       </c>
       <c r="I2" t="n">
-        <v>74035.70591258173</v>
+        <v>80919.65271928946</v>
       </c>
       <c r="J2" t="n">
-        <v>74035.70591258173</v>
+        <v>80919.65271928947</v>
       </c>
       <c r="K2" t="n">
-        <v>74035.70591258173</v>
+        <v>80919.65271928946</v>
       </c>
       <c r="L2" t="n">
-        <v>74035.70591258173</v>
+        <v>80919.65271928946</v>
       </c>
       <c r="M2" t="n">
-        <v>74035.70591258173</v>
+        <v>80919.65271928949</v>
       </c>
       <c r="N2" t="n">
-        <v>74035.70591258173</v>
+        <v>80919.65271928946</v>
       </c>
       <c r="O2" t="n">
-        <v>74035.70591258173</v>
+        <v>80919.65271928946</v>
       </c>
       <c r="P2" t="n">
-        <v>74035.70591258173</v>
+        <v>83574.99392625131</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22936.48595985283</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>70333.56475421274</v>
+        <v>177629.858894854</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>21434.29007549785</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39673.03296345526</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31731.01868172003</v>
+        <v>31731.01868172004</v>
       </c>
       <c r="C4" t="n">
-        <v>31731.01868172003</v>
+        <v>31731.01868172004</v>
       </c>
       <c r="D4" t="n">
-        <v>30791.94241399147</v>
+        <v>31731.01868172004</v>
       </c>
       <c r="E4" t="n">
-        <v>26540.06341709627</v>
+        <v>19567.89464441427</v>
       </c>
       <c r="F4" t="n">
-        <v>26540.06341709627</v>
+        <v>17711.57503747645</v>
       </c>
       <c r="G4" t="n">
-        <v>26540.06341709627</v>
+        <v>17711.57503747645</v>
       </c>
       <c r="H4" t="n">
-        <v>26540.06341709627</v>
+        <v>17711.57503747645</v>
       </c>
       <c r="I4" t="n">
-        <v>26540.06341709627</v>
+        <v>17711.57503747645</v>
       </c>
       <c r="J4" t="n">
-        <v>26540.06341709627</v>
+        <v>17711.57503747645</v>
       </c>
       <c r="K4" t="n">
-        <v>26540.06341709627</v>
+        <v>17711.57503747645</v>
       </c>
       <c r="L4" t="n">
-        <v>26540.06341709627</v>
+        <v>17711.57503747645</v>
       </c>
       <c r="M4" t="n">
-        <v>26540.06341709627</v>
+        <v>17711.57503747645</v>
       </c>
       <c r="N4" t="n">
-        <v>26540.06341709627</v>
+        <v>17711.57503747645</v>
       </c>
       <c r="O4" t="n">
-        <v>26540.06341709627</v>
+        <v>17711.57503747645</v>
       </c>
       <c r="P4" t="n">
-        <v>26540.06341709627</v>
+        <v>13652.4842018192</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34211.44775812258</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>2492.319237121088</v>
+        <v>4819.910958644438</v>
       </c>
       <c r="F5" t="n">
-        <v>2492.319237121088</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="G5" t="n">
-        <v>2492.319237121088</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="H5" t="n">
-        <v>2492.319237121088</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="I5" t="n">
-        <v>2492.319237121088</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="J5" t="n">
-        <v>2492.319237121088</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="K5" t="n">
-        <v>2492.319237121088</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="L5" t="n">
-        <v>2492.319237121088</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="M5" t="n">
-        <v>2492.319237121088</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="N5" t="n">
-        <v>2492.319237121088</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="O5" t="n">
-        <v>2492.319237121088</v>
+        <v>5411.055849997857</v>
       </c>
       <c r="P5" t="n">
-        <v>2492.319237121088</v>
+        <v>6710.48990201194</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1896.58131827995</v>
+        <v>-1896.581318279954</v>
       </c>
       <c r="C6" t="n">
-        <v>-1896.58131827995</v>
+        <v>-1896.581318279954</v>
       </c>
       <c r="D6" t="n">
-        <v>-21446.96212230869</v>
+        <v>-1896.581318279954</v>
       </c>
       <c r="E6" t="n">
-        <v>-25330.24149584835</v>
+        <v>-122355.7565079585</v>
       </c>
       <c r="F6" t="n">
-        <v>45003.32325836437</v>
+        <v>36362.73175631732</v>
       </c>
       <c r="G6" t="n">
-        <v>45003.32325836437</v>
+        <v>57797.02183181515</v>
       </c>
       <c r="H6" t="n">
-        <v>45003.32325836438</v>
+        <v>57797.02183181515</v>
       </c>
       <c r="I6" t="n">
-        <v>45003.32325836437</v>
+        <v>57797.02183181515</v>
       </c>
       <c r="J6" t="n">
-        <v>45003.32325836437</v>
+        <v>57797.02183181517</v>
       </c>
       <c r="K6" t="n">
-        <v>45003.32325836437</v>
+        <v>57797.02183181515</v>
       </c>
       <c r="L6" t="n">
-        <v>45003.32325836437</v>
+        <v>57797.02183181515</v>
       </c>
       <c r="M6" t="n">
-        <v>45003.32325836437</v>
+        <v>57797.02183181518</v>
       </c>
       <c r="N6" t="n">
-        <v>45003.32325836437</v>
+        <v>57797.02183181515</v>
       </c>
       <c r="O6" t="n">
-        <v>45003.32325836437</v>
+        <v>57797.02183181515</v>
       </c>
       <c r="P6" t="n">
-        <v>45003.32325836437</v>
+        <v>23538.9868589649</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.78200725332938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>114.3265705101416</v>
+        <v>221.0968329653412</v>
       </c>
       <c r="F3" t="n">
-        <v>114.3265705101416</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="G3" t="n">
-        <v>114.3265705101416</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="H3" t="n">
-        <v>114.3265705101416</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="I3" t="n">
-        <v>114.3265705101416</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="J3" t="n">
-        <v>114.3265705101416</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="K3" t="n">
-        <v>114.3265705101416</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="L3" t="n">
-        <v>114.3265705101416</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="M3" t="n">
-        <v>114.3265705101416</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="N3" t="n">
-        <v>114.3265705101416</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="O3" t="n">
-        <v>114.3265705101416</v>
+        <v>248.2135711008191</v>
       </c>
       <c r="P3" t="n">
-        <v>114.3265705101416</v>
+        <v>307.8206377069697</v>
       </c>
     </row>
     <row r="4">
@@ -26963,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26.78200725332938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>87.54456325681225</v>
+        <v>221.0968329653412</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>27.11673813547793</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>59.60706660615057</v>
       </c>
     </row>
     <row r="4">
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1076663608174045</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.102638117721244</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.150807375412989</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9.138047791426191</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>13.69556484482692</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>18.90527087887908</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>19.21117792655154</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>18.14057055117347</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>15.48255726849379</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.62675572172049</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.763197037696289</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.453447197126606</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4713094944781883</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008613308865392355</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05760658163923678</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.55635830162105</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.983384499421091</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.442558662678946</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>9.30219963250781</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>12.50795536864218</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>14.59619395306451</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>14.9825117746715</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.70607120255999</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>11.00033048863637</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.353429614159419</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.576661270548404</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.070016987904244</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2321949496774499</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003789906686791895</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04829542291583986</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4293902146517402</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.452375081869075</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.414486400149878</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>5.611050044222121</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>7.180212239687683</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>7.570527066707514</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>7.390516854021208</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>6.826338504504349</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.841111877021211</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.044083095252736</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>2.171537834015854</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.841657506633318</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2063531706404066</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00263429579540945</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.459604303558358</v>
+        <v>0.8888314893079037</v>
       </c>
       <c r="H11" t="n">
-        <v>4.706922573817035</v>
+        <v>9.102745489874572</v>
       </c>
       <c r="I11" t="n">
-        <v>17.71889491293361</v>
+        <v>34.26667599154299</v>
       </c>
       <c r="J11" t="n">
-        <v>39.00834075913622</v>
+        <v>75.43846161564676</v>
       </c>
       <c r="K11" t="n">
-        <v>58.46339092876153</v>
+        <v>113.0626985580503</v>
       </c>
       <c r="L11" t="n">
-        <v>72.52900613378564</v>
+        <v>140.2642752489571</v>
       </c>
       <c r="M11" t="n">
-        <v>80.70249416719157</v>
+        <v>156.0710322469366</v>
       </c>
       <c r="N11" t="n">
-        <v>82.00834489467677</v>
+        <v>158.5964247159326</v>
       </c>
       <c r="O11" t="n">
-        <v>77.43815460116835</v>
+        <v>149.7581065941272</v>
       </c>
       <c r="P11" t="n">
-        <v>66.09167335707137</v>
+        <v>127.8150792018383</v>
       </c>
       <c r="Q11" t="n">
-        <v>49.63209423588766</v>
+        <v>95.98380149099896</v>
       </c>
       <c r="R11" t="n">
-        <v>28.87061883339773</v>
+        <v>55.83306104023765</v>
       </c>
       <c r="S11" t="n">
-        <v>10.47323306733609</v>
+        <v>20.25424756260388</v>
       </c>
       <c r="T11" t="n">
-        <v>2.011917838826713</v>
+        <v>3.89085984444535</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.07110651914463229</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.4755667727933754</v>
       </c>
       <c r="H12" t="n">
-        <v>2.374972719465396</v>
+        <v>4.592973831978127</v>
       </c>
       <c r="I12" t="n">
-        <v>8.466637533062377</v>
+        <v>16.37368055450876</v>
       </c>
       <c r="J12" t="n">
-        <v>23.23310052225435</v>
+        <v>44.93063093307939</v>
       </c>
       <c r="K12" t="n">
-        <v>39.70906930633854</v>
+        <v>76.79360471023554</v>
       </c>
       <c r="L12" t="n">
-        <v>53.3937440858921</v>
+        <v>103.2584784523511</v>
       </c>
       <c r="M12" t="n">
-        <v>62.30798092802719</v>
+        <v>120.4977739661109</v>
       </c>
       <c r="N12" t="n">
-        <v>63.95708778000839</v>
+        <v>123.6869914906771</v>
       </c>
       <c r="O12" t="n">
-        <v>58.50824028739296</v>
+        <v>113.1494329987817</v>
       </c>
       <c r="P12" t="n">
-        <v>46.9580210082127</v>
+        <v>90.81239541174553</v>
       </c>
       <c r="Q12" t="n">
-        <v>31.39019347289776</v>
+        <v>60.7056813832386</v>
       </c>
       <c r="R12" t="n">
-        <v>15.26798992586383</v>
+        <v>29.52685629676765</v>
       </c>
       <c r="S12" t="n">
-        <v>4.56767005764575</v>
+        <v>8.83344422271905</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9911897952718879</v>
+        <v>1.916867825425929</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.03128728768377471</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.3986992069866808</v>
       </c>
       <c r="H13" t="n">
-        <v>1.832973540310141</v>
+        <v>3.544798403936128</v>
       </c>
       <c r="I13" t="n">
-        <v>6.199873692582764</v>
+        <v>11.9899725155631</v>
       </c>
       <c r="J13" t="n">
-        <v>14.57570063700609</v>
+        <v>28.18803393395833</v>
       </c>
       <c r="K13" t="n">
-        <v>23.95235362491163</v>
+        <v>46.32159877536164</v>
       </c>
       <c r="L13" t="n">
-        <v>30.65076613316158</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M13" t="n">
-        <v>32.31693533289134</v>
+        <v>62.49791296428488</v>
       </c>
       <c r="N13" t="n">
-        <v>31.5485108425773</v>
+        <v>61.01185228369821</v>
       </c>
       <c r="O13" t="n">
-        <v>29.14015603756857</v>
+        <v>56.35432063844469</v>
       </c>
       <c r="P13" t="n">
-        <v>24.93443760765448</v>
+        <v>48.22085681591636</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.26331214703139</v>
+        <v>33.38562177776652</v>
       </c>
       <c r="R13" t="n">
-        <v>9.269823241691153</v>
+        <v>17.9269661614193</v>
       </c>
       <c r="S13" t="n">
-        <v>3.592853043736745</v>
+        <v>6.948239816304245</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8808768547502713</v>
+        <v>1.703532975306727</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.0217472294720008</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.459604303558358</v>
+        <v>0.99784350191284</v>
       </c>
       <c r="H14" t="n">
-        <v>4.706922573817035</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I14" t="n">
-        <v>17.71889491293361</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J14" t="n">
-        <v>39.00834075913622</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K14" t="n">
-        <v>58.46339092876153</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L14" t="n">
-        <v>72.52900613378564</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M14" t="n">
-        <v>80.70249416719159</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N14" t="n">
-        <v>82.00834489467678</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O14" t="n">
-        <v>77.43815460116835</v>
+        <v>168.1254043329172</v>
       </c>
       <c r="P14" t="n">
-        <v>66.09167335707137</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q14" t="n">
-        <v>49.63209423588766</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R14" t="n">
-        <v>28.87061883339773</v>
+        <v>62.68078687703249</v>
       </c>
       <c r="S14" t="n">
-        <v>10.47323306733609</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T14" t="n">
-        <v>2.011917838826713</v>
+        <v>4.36805992962346</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H15" t="n">
-        <v>2.374972719465395</v>
+        <v>5.156285694000037</v>
       </c>
       <c r="I15" t="n">
-        <v>8.466637533062377</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J15" t="n">
-        <v>23.23310052225435</v>
+        <v>50.44121259512025</v>
       </c>
       <c r="K15" t="n">
-        <v>39.70906930633853</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L15" t="n">
-        <v>53.3937440858921</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M15" t="n">
-        <v>62.30798092802718</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N15" t="n">
-        <v>63.95708778000839</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O15" t="n">
-        <v>58.50824028739296</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P15" t="n">
-        <v>46.95802100821271</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q15" t="n">
-        <v>31.39019347289776</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R15" t="n">
-        <v>15.26798992586383</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S15" t="n">
-        <v>4.56767005764575</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T15" t="n">
-        <v>0.991189795271888</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.03512456194822914</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H16" t="n">
-        <v>1.832973540310141</v>
+        <v>3.979555287485267</v>
       </c>
       <c r="I16" t="n">
-        <v>6.199873692582764</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J16" t="n">
-        <v>14.57570063700609</v>
+        <v>31.6451957778864</v>
       </c>
       <c r="K16" t="n">
-        <v>23.95235362491163</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L16" t="n">
-        <v>30.65076613316158</v>
+        <v>66.54565150463601</v>
       </c>
       <c r="M16" t="n">
-        <v>32.31693533289134</v>
+        <v>70.16305912281022</v>
       </c>
       <c r="N16" t="n">
-        <v>31.5485108425773</v>
+        <v>68.49473839901789</v>
       </c>
       <c r="O16" t="n">
-        <v>29.14015603756857</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P16" t="n">
-        <v>24.93443760765448</v>
+        <v>54.13497294959502</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.26331214703139</v>
+        <v>37.48024923622369</v>
       </c>
       <c r="R16" t="n">
-        <v>9.269823241691153</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S16" t="n">
-        <v>3.592853043736744</v>
+        <v>7.800416652463444</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8808768547502713</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.459604303558358</v>
+        <v>0.99784350191284</v>
       </c>
       <c r="H17" t="n">
-        <v>4.706922573817035</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I17" t="n">
-        <v>17.71889491293361</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J17" t="n">
-        <v>39.00834075913622</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K17" t="n">
-        <v>58.46339092876153</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L17" t="n">
-        <v>72.52900613378564</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M17" t="n">
-        <v>80.70249416719159</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N17" t="n">
-        <v>82.00834489467678</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O17" t="n">
-        <v>77.43815460116835</v>
+        <v>168.1254043329172</v>
       </c>
       <c r="P17" t="n">
-        <v>66.09167335707137</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q17" t="n">
-        <v>49.63209423588766</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R17" t="n">
-        <v>28.87061883339773</v>
+        <v>62.68078687703249</v>
       </c>
       <c r="S17" t="n">
-        <v>10.47323306733609</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T17" t="n">
-        <v>2.011917838826713</v>
+        <v>4.36805992962346</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H18" t="n">
-        <v>2.374972719465395</v>
+        <v>5.156285694000037</v>
       </c>
       <c r="I18" t="n">
-        <v>8.466637533062377</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J18" t="n">
-        <v>23.23310052225435</v>
+        <v>50.44121259512025</v>
       </c>
       <c r="K18" t="n">
-        <v>39.70906930633853</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L18" t="n">
-        <v>53.3937440858921</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M18" t="n">
-        <v>62.30798092802718</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N18" t="n">
-        <v>63.95708778000839</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O18" t="n">
-        <v>58.50824028739296</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P18" t="n">
-        <v>46.95802100821271</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q18" t="n">
-        <v>31.39019347289776</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R18" t="n">
-        <v>15.26798992586383</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S18" t="n">
-        <v>4.56767005764575</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T18" t="n">
-        <v>0.991189795271888</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.03512456194822914</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H19" t="n">
-        <v>1.832973540310141</v>
+        <v>3.979555287485267</v>
       </c>
       <c r="I19" t="n">
-        <v>6.199873692582764</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J19" t="n">
-        <v>14.57570063700609</v>
+        <v>31.6451957778864</v>
       </c>
       <c r="K19" t="n">
-        <v>23.95235362491163</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L19" t="n">
-        <v>30.65076613316158</v>
+        <v>66.54565150463601</v>
       </c>
       <c r="M19" t="n">
-        <v>32.31693533289134</v>
+        <v>70.16305912281022</v>
       </c>
       <c r="N19" t="n">
-        <v>31.5485108425773</v>
+        <v>68.49473839901789</v>
       </c>
       <c r="O19" t="n">
-        <v>29.14015603756857</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P19" t="n">
-        <v>24.93443760765448</v>
+        <v>54.13497294959502</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.26331214703139</v>
+        <v>37.48024923622369</v>
       </c>
       <c r="R19" t="n">
-        <v>9.269823241691153</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S19" t="n">
-        <v>3.592853043736744</v>
+        <v>7.800416652463444</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8808768547502713</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.459604303558358</v>
+        <v>0.99784350191284</v>
       </c>
       <c r="H20" t="n">
-        <v>4.706922573817035</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I20" t="n">
-        <v>17.71889491293361</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J20" t="n">
-        <v>39.00834075913622</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K20" t="n">
-        <v>58.46339092876153</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L20" t="n">
-        <v>72.52900613378564</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M20" t="n">
-        <v>80.70249416719159</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N20" t="n">
-        <v>82.00834489467678</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O20" t="n">
-        <v>77.43815460116835</v>
+        <v>168.1254043329172</v>
       </c>
       <c r="P20" t="n">
-        <v>66.09167335707137</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q20" t="n">
-        <v>49.63209423588766</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R20" t="n">
-        <v>28.87061883339773</v>
+        <v>62.68078687703249</v>
       </c>
       <c r="S20" t="n">
-        <v>10.47323306733609</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T20" t="n">
-        <v>2.011917838826713</v>
+        <v>4.36805992962346</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H21" t="n">
-        <v>2.374972719465395</v>
+        <v>5.156285694000037</v>
       </c>
       <c r="I21" t="n">
-        <v>8.466637533062377</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J21" t="n">
-        <v>23.23310052225435</v>
+        <v>50.44121259512025</v>
       </c>
       <c r="K21" t="n">
-        <v>39.70906930633853</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L21" t="n">
-        <v>53.3937440858921</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M21" t="n">
-        <v>62.30798092802718</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N21" t="n">
-        <v>63.95708778000839</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O21" t="n">
-        <v>58.50824028739296</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P21" t="n">
-        <v>46.95802100821271</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q21" t="n">
-        <v>31.39019347289776</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R21" t="n">
-        <v>15.26798992586383</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S21" t="n">
-        <v>4.56767005764575</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T21" t="n">
-        <v>0.991189795271888</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.03512456194822914</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H22" t="n">
-        <v>1.832973540310141</v>
+        <v>3.979555287485267</v>
       </c>
       <c r="I22" t="n">
-        <v>6.199873692582764</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J22" t="n">
-        <v>14.57570063700609</v>
+        <v>31.6451957778864</v>
       </c>
       <c r="K22" t="n">
-        <v>23.95235362491163</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L22" t="n">
-        <v>30.65076613316158</v>
+        <v>66.54565150463601</v>
       </c>
       <c r="M22" t="n">
-        <v>32.31693533289134</v>
+        <v>70.16305912281022</v>
       </c>
       <c r="N22" t="n">
-        <v>31.5485108425773</v>
+        <v>68.49473839901789</v>
       </c>
       <c r="O22" t="n">
-        <v>29.14015603756857</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P22" t="n">
-        <v>24.93443760765448</v>
+        <v>54.13497294959502</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.26331214703139</v>
+        <v>37.48024923622369</v>
       </c>
       <c r="R22" t="n">
-        <v>9.269823241691153</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S22" t="n">
-        <v>3.592853043736744</v>
+        <v>7.800416652463444</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8808768547502713</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.459604303558358</v>
+        <v>0.99784350191284</v>
       </c>
       <c r="H23" t="n">
-        <v>4.706922573817035</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I23" t="n">
-        <v>17.71889491293361</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J23" t="n">
-        <v>39.00834075913622</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K23" t="n">
-        <v>58.46339092876153</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L23" t="n">
-        <v>72.52900613378564</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M23" t="n">
-        <v>80.70249416719159</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N23" t="n">
-        <v>82.00834489467678</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O23" t="n">
-        <v>77.43815460116835</v>
+        <v>168.1254043329172</v>
       </c>
       <c r="P23" t="n">
-        <v>66.09167335707137</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q23" t="n">
-        <v>49.63209423588766</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R23" t="n">
-        <v>28.87061883339773</v>
+        <v>62.68078687703249</v>
       </c>
       <c r="S23" t="n">
-        <v>10.47323306733609</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T23" t="n">
-        <v>2.011917838826713</v>
+        <v>4.36805992962346</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H24" t="n">
-        <v>2.374972719465395</v>
+        <v>5.156285694000037</v>
       </c>
       <c r="I24" t="n">
-        <v>8.466637533062377</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J24" t="n">
-        <v>23.23310052225435</v>
+        <v>50.44121259512025</v>
       </c>
       <c r="K24" t="n">
-        <v>39.70906930633853</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L24" t="n">
-        <v>53.3937440858921</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M24" t="n">
-        <v>62.30798092802718</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N24" t="n">
-        <v>63.95708778000839</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O24" t="n">
-        <v>58.50824028739296</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P24" t="n">
-        <v>46.95802100821271</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q24" t="n">
-        <v>31.39019347289776</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R24" t="n">
-        <v>15.26798992586383</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S24" t="n">
-        <v>4.56767005764575</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T24" t="n">
-        <v>0.991189795271888</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.03512456194822914</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H25" t="n">
-        <v>1.832973540310141</v>
+        <v>3.979555287485267</v>
       </c>
       <c r="I25" t="n">
-        <v>6.199873692582764</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J25" t="n">
-        <v>14.57570063700609</v>
+        <v>31.6451957778864</v>
       </c>
       <c r="K25" t="n">
-        <v>23.95235362491163</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L25" t="n">
-        <v>30.65076613316158</v>
+        <v>66.54565150463601</v>
       </c>
       <c r="M25" t="n">
-        <v>32.31693533289134</v>
+        <v>70.16305912281022</v>
       </c>
       <c r="N25" t="n">
-        <v>31.5485108425773</v>
+        <v>68.49473839901789</v>
       </c>
       <c r="O25" t="n">
-        <v>29.14015603756857</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P25" t="n">
-        <v>24.93443760765448</v>
+        <v>54.13497294959502</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.26331214703139</v>
+        <v>37.48024923622369</v>
       </c>
       <c r="R25" t="n">
-        <v>9.269823241691153</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S25" t="n">
-        <v>3.592853043736744</v>
+        <v>7.800416652463444</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8808768547502713</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.459604303558358</v>
+        <v>0.99784350191284</v>
       </c>
       <c r="H26" t="n">
-        <v>4.706922573817035</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I26" t="n">
-        <v>17.71889491293361</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J26" t="n">
-        <v>39.00834075913622</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K26" t="n">
-        <v>58.46339092876153</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L26" t="n">
-        <v>72.52900613378564</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M26" t="n">
-        <v>80.70249416719159</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N26" t="n">
-        <v>82.00834489467678</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O26" t="n">
-        <v>77.43815460116835</v>
+        <v>168.1254043329172</v>
       </c>
       <c r="P26" t="n">
-        <v>66.09167335707137</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q26" t="n">
-        <v>49.63209423588766</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R26" t="n">
-        <v>28.87061883339773</v>
+        <v>62.68078687703249</v>
       </c>
       <c r="S26" t="n">
-        <v>10.47323306733609</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T26" t="n">
-        <v>2.011917838826713</v>
+        <v>4.36805992962346</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H27" t="n">
-        <v>2.374972719465395</v>
+        <v>5.156285694000037</v>
       </c>
       <c r="I27" t="n">
-        <v>8.466637533062377</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J27" t="n">
-        <v>23.23310052225435</v>
+        <v>50.44121259512025</v>
       </c>
       <c r="K27" t="n">
-        <v>39.70906930633853</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L27" t="n">
-        <v>53.3937440858921</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M27" t="n">
-        <v>62.30798092802718</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N27" t="n">
-        <v>63.95708778000839</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O27" t="n">
-        <v>58.50824028739296</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P27" t="n">
-        <v>46.95802100821271</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q27" t="n">
-        <v>31.39019347289776</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R27" t="n">
-        <v>15.26798992586383</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S27" t="n">
-        <v>4.56767005764575</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T27" t="n">
-        <v>0.991189795271888</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.03512456194822914</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H28" t="n">
-        <v>1.832973540310141</v>
+        <v>3.979555287485267</v>
       </c>
       <c r="I28" t="n">
-        <v>6.199873692582764</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J28" t="n">
-        <v>14.57570063700609</v>
+        <v>31.6451957778864</v>
       </c>
       <c r="K28" t="n">
-        <v>23.95235362491163</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L28" t="n">
-        <v>30.65076613316158</v>
+        <v>66.54565150463601</v>
       </c>
       <c r="M28" t="n">
-        <v>32.31693533289134</v>
+        <v>70.16305912281022</v>
       </c>
       <c r="N28" t="n">
-        <v>31.5485108425773</v>
+        <v>68.49473839901789</v>
       </c>
       <c r="O28" t="n">
-        <v>29.14015603756857</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P28" t="n">
-        <v>24.93443760765448</v>
+        <v>54.13497294959502</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.26331214703139</v>
+        <v>37.48024923622369</v>
       </c>
       <c r="R28" t="n">
-        <v>9.269823241691153</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S28" t="n">
-        <v>3.592853043736744</v>
+        <v>7.800416652463444</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8808768547502713</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.459604303558358</v>
+        <v>0.99784350191284</v>
       </c>
       <c r="H29" t="n">
-        <v>4.706922573817035</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I29" t="n">
-        <v>17.71889491293361</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J29" t="n">
-        <v>39.00834075913622</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K29" t="n">
-        <v>58.46339092876153</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L29" t="n">
-        <v>72.52900613378564</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M29" t="n">
-        <v>80.70249416719159</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N29" t="n">
-        <v>82.00834489467678</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O29" t="n">
-        <v>77.43815460116835</v>
+        <v>168.1254043329172</v>
       </c>
       <c r="P29" t="n">
-        <v>66.09167335707137</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q29" t="n">
-        <v>49.63209423588766</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R29" t="n">
-        <v>28.87061883339773</v>
+        <v>62.68078687703249</v>
       </c>
       <c r="S29" t="n">
-        <v>10.47323306733609</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T29" t="n">
-        <v>2.011917838826713</v>
+        <v>4.36805992962346</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H30" t="n">
-        <v>2.374972719465395</v>
+        <v>5.156285694000037</v>
       </c>
       <c r="I30" t="n">
-        <v>8.466637533062377</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J30" t="n">
-        <v>23.23310052225435</v>
+        <v>50.44121259512025</v>
       </c>
       <c r="K30" t="n">
-        <v>39.70906930633853</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L30" t="n">
-        <v>53.3937440858921</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M30" t="n">
-        <v>62.30798092802718</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N30" t="n">
-        <v>63.95708778000839</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O30" t="n">
-        <v>58.50824028739296</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P30" t="n">
-        <v>46.95802100821271</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q30" t="n">
-        <v>31.39019347289776</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R30" t="n">
-        <v>15.26798992586383</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S30" t="n">
-        <v>4.56767005764575</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T30" t="n">
-        <v>0.991189795271888</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.03512456194822914</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H31" t="n">
-        <v>1.832973540310141</v>
+        <v>3.979555287485267</v>
       </c>
       <c r="I31" t="n">
-        <v>6.199873692582764</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J31" t="n">
-        <v>14.57570063700609</v>
+        <v>31.6451957778864</v>
       </c>
       <c r="K31" t="n">
-        <v>23.95235362491163</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L31" t="n">
-        <v>30.65076613316158</v>
+        <v>66.54565150463601</v>
       </c>
       <c r="M31" t="n">
-        <v>32.31693533289134</v>
+        <v>70.16305912281022</v>
       </c>
       <c r="N31" t="n">
-        <v>31.5485108425773</v>
+        <v>68.49473839901789</v>
       </c>
       <c r="O31" t="n">
-        <v>29.14015603756857</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P31" t="n">
-        <v>24.93443760765448</v>
+        <v>54.13497294959502</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.26331214703139</v>
+        <v>37.48024923622369</v>
       </c>
       <c r="R31" t="n">
-        <v>9.269823241691153</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S31" t="n">
-        <v>3.592853043736744</v>
+        <v>7.800416652463444</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8808768547502713</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.459604303558358</v>
+        <v>0.99784350191284</v>
       </c>
       <c r="H32" t="n">
-        <v>4.706922573817035</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I32" t="n">
-        <v>17.71889491293361</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J32" t="n">
-        <v>39.00834075913622</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K32" t="n">
-        <v>58.46339092876153</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L32" t="n">
-        <v>72.52900613378564</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M32" t="n">
-        <v>80.70249416719159</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N32" t="n">
-        <v>82.00834489467678</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O32" t="n">
-        <v>77.43815460116835</v>
+        <v>168.1254043329172</v>
       </c>
       <c r="P32" t="n">
-        <v>66.09167335707137</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q32" t="n">
-        <v>49.63209423588766</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R32" t="n">
-        <v>28.87061883339773</v>
+        <v>62.68078687703249</v>
       </c>
       <c r="S32" t="n">
-        <v>10.47323306733609</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T32" t="n">
-        <v>2.011917838826713</v>
+        <v>4.36805992962346</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H33" t="n">
-        <v>2.374972719465395</v>
+        <v>5.156285694000037</v>
       </c>
       <c r="I33" t="n">
-        <v>8.466637533062377</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J33" t="n">
-        <v>23.23310052225435</v>
+        <v>50.44121259512025</v>
       </c>
       <c r="K33" t="n">
-        <v>39.70906930633853</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L33" t="n">
-        <v>53.3937440858921</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M33" t="n">
-        <v>62.30798092802718</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N33" t="n">
-        <v>63.95708778000839</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O33" t="n">
-        <v>58.50824028739296</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P33" t="n">
-        <v>46.95802100821271</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q33" t="n">
-        <v>31.39019347289776</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R33" t="n">
-        <v>15.26798992586383</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S33" t="n">
-        <v>4.56767005764575</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T33" t="n">
-        <v>0.991189795271888</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.03512456194822914</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H34" t="n">
-        <v>1.832973540310141</v>
+        <v>3.979555287485267</v>
       </c>
       <c r="I34" t="n">
-        <v>6.199873692582764</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J34" t="n">
-        <v>14.57570063700609</v>
+        <v>31.6451957778864</v>
       </c>
       <c r="K34" t="n">
-        <v>23.95235362491163</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L34" t="n">
-        <v>30.65076613316158</v>
+        <v>66.54565150463601</v>
       </c>
       <c r="M34" t="n">
-        <v>32.31693533289134</v>
+        <v>70.16305912281022</v>
       </c>
       <c r="N34" t="n">
-        <v>31.5485108425773</v>
+        <v>68.49473839901789</v>
       </c>
       <c r="O34" t="n">
-        <v>29.14015603756857</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P34" t="n">
-        <v>24.93443760765448</v>
+        <v>54.13497294959502</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.26331214703139</v>
+        <v>37.48024923622369</v>
       </c>
       <c r="R34" t="n">
-        <v>9.269823241691153</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S34" t="n">
-        <v>3.592853043736744</v>
+        <v>7.800416652463444</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8808768547502713</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.459604303558358</v>
+        <v>0.99784350191284</v>
       </c>
       <c r="H35" t="n">
-        <v>4.706922573817035</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I35" t="n">
-        <v>17.71889491293361</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J35" t="n">
-        <v>39.00834075913622</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K35" t="n">
-        <v>58.46339092876153</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L35" t="n">
-        <v>72.52900613378564</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M35" t="n">
-        <v>80.70249416719159</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N35" t="n">
-        <v>82.00834489467678</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O35" t="n">
-        <v>77.43815460116835</v>
+        <v>168.1254043329172</v>
       </c>
       <c r="P35" t="n">
-        <v>66.09167335707137</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q35" t="n">
-        <v>49.63209423588766</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R35" t="n">
-        <v>28.87061883339773</v>
+        <v>62.68078687703249</v>
       </c>
       <c r="S35" t="n">
-        <v>10.47323306733609</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T35" t="n">
-        <v>2.011917838826713</v>
+        <v>4.36805992962346</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H36" t="n">
-        <v>2.374972719465395</v>
+        <v>5.156285694000037</v>
       </c>
       <c r="I36" t="n">
-        <v>8.466637533062377</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J36" t="n">
-        <v>23.23310052225435</v>
+        <v>50.44121259512025</v>
       </c>
       <c r="K36" t="n">
-        <v>39.70906930633853</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L36" t="n">
-        <v>53.3937440858921</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M36" t="n">
-        <v>62.30798092802718</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N36" t="n">
-        <v>63.95708778000839</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O36" t="n">
-        <v>58.50824028739296</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P36" t="n">
-        <v>46.95802100821271</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q36" t="n">
-        <v>31.39019347289776</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R36" t="n">
-        <v>15.26798992586383</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S36" t="n">
-        <v>4.56767005764575</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T36" t="n">
-        <v>0.991189795271888</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.03512456194822914</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H37" t="n">
-        <v>1.832973540310141</v>
+        <v>3.979555287485267</v>
       </c>
       <c r="I37" t="n">
-        <v>6.199873692582764</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J37" t="n">
-        <v>14.57570063700609</v>
+        <v>31.6451957778864</v>
       </c>
       <c r="K37" t="n">
-        <v>23.95235362491163</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L37" t="n">
-        <v>30.65076613316158</v>
+        <v>66.54565150463601</v>
       </c>
       <c r="M37" t="n">
-        <v>32.31693533289134</v>
+        <v>70.16305912281022</v>
       </c>
       <c r="N37" t="n">
-        <v>31.5485108425773</v>
+        <v>68.49473839901789</v>
       </c>
       <c r="O37" t="n">
-        <v>29.14015603756857</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P37" t="n">
-        <v>24.93443760765448</v>
+        <v>54.13497294959502</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.26331214703139</v>
+        <v>37.48024923622369</v>
       </c>
       <c r="R37" t="n">
-        <v>9.269823241691153</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S37" t="n">
-        <v>3.592853043736744</v>
+        <v>7.800416652463444</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8808768547502713</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.459604303558358</v>
+        <v>0.99784350191284</v>
       </c>
       <c r="H38" t="n">
-        <v>4.706922573817035</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I38" t="n">
-        <v>17.71889491293361</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J38" t="n">
-        <v>39.00834075913622</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K38" t="n">
-        <v>58.46339092876153</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L38" t="n">
-        <v>72.52900613378564</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M38" t="n">
-        <v>80.70249416719159</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N38" t="n">
-        <v>82.00834489467678</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O38" t="n">
-        <v>77.43815460116835</v>
+        <v>168.1254043329172</v>
       </c>
       <c r="P38" t="n">
-        <v>66.09167335707137</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q38" t="n">
-        <v>49.63209423588766</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R38" t="n">
-        <v>28.87061883339773</v>
+        <v>62.68078687703249</v>
       </c>
       <c r="S38" t="n">
-        <v>10.47323306733609</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T38" t="n">
-        <v>2.011917838826713</v>
+        <v>4.36805992962346</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H39" t="n">
-        <v>2.374972719465395</v>
+        <v>5.156285694000037</v>
       </c>
       <c r="I39" t="n">
-        <v>8.466637533062377</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J39" t="n">
-        <v>23.23310052225435</v>
+        <v>50.44121259512025</v>
       </c>
       <c r="K39" t="n">
-        <v>39.70906930633853</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L39" t="n">
-        <v>53.3937440858921</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M39" t="n">
-        <v>62.30798092802718</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N39" t="n">
-        <v>63.95708778000839</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O39" t="n">
-        <v>58.50824028739296</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P39" t="n">
-        <v>46.95802100821271</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q39" t="n">
-        <v>31.39019347289776</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R39" t="n">
-        <v>15.26798992586383</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S39" t="n">
-        <v>4.56767005764575</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T39" t="n">
-        <v>0.991189795271888</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.03512456194822914</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H40" t="n">
-        <v>1.832973540310141</v>
+        <v>3.979555287485267</v>
       </c>
       <c r="I40" t="n">
-        <v>6.199873692582764</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J40" t="n">
-        <v>14.57570063700609</v>
+        <v>31.6451957778864</v>
       </c>
       <c r="K40" t="n">
-        <v>23.95235362491163</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L40" t="n">
-        <v>30.65076613316158</v>
+        <v>66.54565150463601</v>
       </c>
       <c r="M40" t="n">
-        <v>32.31693533289134</v>
+        <v>70.16305912281022</v>
       </c>
       <c r="N40" t="n">
-        <v>31.5485108425773</v>
+        <v>68.49473839901789</v>
       </c>
       <c r="O40" t="n">
-        <v>29.14015603756857</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P40" t="n">
-        <v>24.93443760765448</v>
+        <v>54.13497294959502</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.26331214703139</v>
+        <v>37.48024923622369</v>
       </c>
       <c r="R40" t="n">
-        <v>9.269823241691153</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S40" t="n">
-        <v>3.592853043736744</v>
+        <v>7.800416652463444</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8808768547502713</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.459604303558358</v>
+        <v>0.99784350191284</v>
       </c>
       <c r="H41" t="n">
-        <v>4.706922573817035</v>
+        <v>10.21916476396487</v>
       </c>
       <c r="I41" t="n">
-        <v>17.71889491293361</v>
+        <v>38.4693616074948</v>
       </c>
       <c r="J41" t="n">
-        <v>39.00834075913622</v>
+        <v>84.69071992047498</v>
       </c>
       <c r="K41" t="n">
-        <v>58.46339092876153</v>
+        <v>126.9294353564455</v>
       </c>
       <c r="L41" t="n">
-        <v>72.52900613378564</v>
+        <v>157.4671884281106</v>
       </c>
       <c r="M41" t="n">
-        <v>80.70249416719159</v>
+        <v>175.2125878052531</v>
       </c>
       <c r="N41" t="n">
-        <v>82.00834489467678</v>
+        <v>178.047710655063</v>
       </c>
       <c r="O41" t="n">
-        <v>77.43815460116835</v>
+        <v>168.1254043329172</v>
       </c>
       <c r="P41" t="n">
-        <v>66.09167335707137</v>
+        <v>143.4911428794439</v>
       </c>
       <c r="Q41" t="n">
-        <v>49.63209423588766</v>
+        <v>107.7558724671903</v>
       </c>
       <c r="R41" t="n">
-        <v>28.87061883339773</v>
+        <v>62.68078687703249</v>
       </c>
       <c r="S41" t="n">
-        <v>10.47323306733609</v>
+        <v>22.73835879983886</v>
       </c>
       <c r="T41" t="n">
-        <v>2.011917838826713</v>
+        <v>4.36805992962346</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.07982748015302718</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.5338933416130827</v>
       </c>
       <c r="H42" t="n">
-        <v>2.374972719465395</v>
+        <v>5.156285694000037</v>
       </c>
       <c r="I42" t="n">
-        <v>8.466637533062377</v>
+        <v>18.38185408623991</v>
       </c>
       <c r="J42" t="n">
-        <v>23.23310052225435</v>
+        <v>50.44121259512025</v>
       </c>
       <c r="K42" t="n">
-        <v>39.70906930633853</v>
+        <v>86.21206648319678</v>
       </c>
       <c r="L42" t="n">
-        <v>53.3937440858921</v>
+        <v>115.9227626164722</v>
       </c>
       <c r="M42" t="n">
-        <v>62.30798092802718</v>
+        <v>135.2763962499464</v>
       </c>
       <c r="N42" t="n">
-        <v>63.95708778000839</v>
+        <v>138.8567599312026</v>
       </c>
       <c r="O42" t="n">
-        <v>58.50824028739296</v>
+        <v>127.026807467039</v>
       </c>
       <c r="P42" t="n">
-        <v>46.95802100821271</v>
+        <v>101.9502118734666</v>
       </c>
       <c r="Q42" t="n">
-        <v>31.39019347289776</v>
+        <v>68.15101672941736</v>
       </c>
       <c r="R42" t="n">
-        <v>15.26798992586383</v>
+        <v>33.14821992927544</v>
       </c>
       <c r="S42" t="n">
-        <v>4.56767005764575</v>
+        <v>9.916834656716683</v>
       </c>
       <c r="T42" t="n">
-        <v>0.991189795271888</v>
+        <v>2.151964828694837</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.03512456194822914</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.4475982429686902</v>
       </c>
       <c r="H43" t="n">
-        <v>1.832973540310141</v>
+        <v>3.979555287485267</v>
       </c>
       <c r="I43" t="n">
-        <v>6.199873692582764</v>
+        <v>13.46049988854934</v>
       </c>
       <c r="J43" t="n">
-        <v>14.57570063700609</v>
+        <v>31.6451957778864</v>
       </c>
       <c r="K43" t="n">
-        <v>23.95235362491163</v>
+        <v>52.00277768308963</v>
       </c>
       <c r="L43" t="n">
-        <v>30.65076613316158</v>
+        <v>66.54565150463601</v>
       </c>
       <c r="M43" t="n">
-        <v>32.31693533289134</v>
+        <v>70.16305912281022</v>
       </c>
       <c r="N43" t="n">
-        <v>31.5485108425773</v>
+        <v>68.49473839901789</v>
       </c>
       <c r="O43" t="n">
-        <v>29.14015603756857</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P43" t="n">
-        <v>24.93443760765448</v>
+        <v>54.13497294959502</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.26331214703139</v>
+        <v>37.48024923622369</v>
       </c>
       <c r="R43" t="n">
-        <v>9.269823241691153</v>
+        <v>20.12564463384674</v>
       </c>
       <c r="S43" t="n">
-        <v>3.592853043736744</v>
+        <v>7.800416652463444</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8808768547502713</v>
+        <v>1.91246521995713</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.02441444961647404</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.459604303558358</v>
+        <v>1.237469900329525</v>
       </c>
       <c r="H44" t="n">
-        <v>4.706922573817035</v>
+        <v>12.67323861674976</v>
       </c>
       <c r="I44" t="n">
-        <v>17.71889491293361</v>
+        <v>47.70755833245408</v>
       </c>
       <c r="J44" t="n">
-        <v>39.00834075913622</v>
+        <v>105.0287109530932</v>
       </c>
       <c r="K44" t="n">
-        <v>58.46339092876153</v>
+        <v>157.410811834042</v>
       </c>
       <c r="L44" t="n">
-        <v>72.52900613378564</v>
+        <v>195.2820312962518</v>
       </c>
       <c r="M44" t="n">
-        <v>80.70249416719159</v>
+        <v>217.288886636237</v>
       </c>
       <c r="N44" t="n">
-        <v>82.00834489467678</v>
+        <v>220.8048479905482</v>
       </c>
       <c r="O44" t="n">
-        <v>77.43815460116835</v>
+        <v>208.4997566691465</v>
       </c>
       <c r="P44" t="n">
-        <v>66.09167335707137</v>
+        <v>177.9497185047613</v>
       </c>
       <c r="Q44" t="n">
-        <v>49.63209423588766</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R44" t="n">
-        <v>28.87061883339773</v>
+        <v>77.73321862657463</v>
       </c>
       <c r="S44" t="n">
-        <v>10.47323306733609</v>
+        <v>28.19884535375909</v>
       </c>
       <c r="T44" t="n">
-        <v>2.011917838826713</v>
+        <v>5.417024488692501</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03676834428466863</v>
+        <v>0.09899759202636202</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2459099818520028</v>
+        <v>0.6621047678980103</v>
       </c>
       <c r="H45" t="n">
-        <v>2.374972719465395</v>
+        <v>6.394538153120259</v>
       </c>
       <c r="I45" t="n">
-        <v>8.466637533062377</v>
+        <v>22.79615099999729</v>
       </c>
       <c r="J45" t="n">
-        <v>23.23310052225435</v>
+        <v>62.55438072496072</v>
       </c>
       <c r="K45" t="n">
-        <v>39.70906930633853</v>
+        <v>106.9154001741274</v>
       </c>
       <c r="L45" t="n">
-        <v>53.3937440858921</v>
+        <v>143.7609497139956</v>
       </c>
       <c r="M45" t="n">
-        <v>62.30798092802718</v>
+        <v>167.7622475502985</v>
       </c>
       <c r="N45" t="n">
-        <v>63.95708778000839</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O45" t="n">
-        <v>58.50824028739296</v>
+        <v>157.5315672989621</v>
       </c>
       <c r="P45" t="n">
-        <v>46.95802100821271</v>
+        <v>126.4329709857174</v>
       </c>
       <c r="Q45" t="n">
-        <v>31.39019347289776</v>
+        <v>84.51709282852497</v>
       </c>
       <c r="R45" t="n">
-        <v>15.26798992586383</v>
+        <v>41.10857497528174</v>
       </c>
       <c r="S45" t="n">
-        <v>4.56767005764575</v>
+        <v>12.29830566687751</v>
       </c>
       <c r="T45" t="n">
-        <v>0.991189795271888</v>
+        <v>2.668746849553822</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01617828827973703</v>
+        <v>0.04355952420381649</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2061626681330423</v>
+        <v>0.5550863958650273</v>
       </c>
       <c r="H46" t="n">
-        <v>1.832973540310141</v>
+        <v>4.935222683236337</v>
       </c>
       <c r="I46" t="n">
-        <v>6.199873692582764</v>
+        <v>16.6929617956501</v>
       </c>
       <c r="J46" t="n">
-        <v>14.57570063700609</v>
+        <v>39.24460818765743</v>
       </c>
       <c r="K46" t="n">
-        <v>23.95235362491163</v>
+        <v>64.49094671959134</v>
       </c>
       <c r="L46" t="n">
-        <v>30.65076613316158</v>
+        <v>82.52620834524234</v>
       </c>
       <c r="M46" t="n">
-        <v>32.31693533289134</v>
+        <v>87.01231567182423</v>
       </c>
       <c r="N46" t="n">
-        <v>31.5485108425773</v>
+        <v>84.94335728723647</v>
       </c>
       <c r="O46" t="n">
-        <v>29.14015603756857</v>
+        <v>78.45893893554043</v>
       </c>
       <c r="P46" t="n">
-        <v>24.93443760765448</v>
+        <v>67.13517645989383</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.26331214703139</v>
+        <v>46.48091629375242</v>
       </c>
       <c r="R46" t="n">
-        <v>9.269823241691153</v>
+        <v>24.95870285407658</v>
       </c>
       <c r="S46" t="n">
-        <v>3.592853043736744</v>
+        <v>9.6736420079387</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8808768547502713</v>
+        <v>2.371732782332388</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0112452364436205</v>
+        <v>0.03027743977445607</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>191118.670671861</v>
+        <v>58921.76765214761</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3640792.094707792</v>
+        <v>4150000.068181272</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23449282.73886651</v>
+        <v>23265420.39381653</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4525523.781256439</v>
+        <v>4585282.234043662</v>
       </c>
     </row>
     <row r="11">
@@ -8461,10 +8461,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M8" t="n">
-        <v>281.0224045372727</v>
+        <v>262.1171336583936</v>
       </c>
       <c r="N8" t="n">
-        <v>279.8839375878409</v>
+        <v>260.6727596612894</v>
       </c>
       <c r="O8" t="n">
         <v>246.758517458259</v>
@@ -8534,22 +8534,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>158.8643559162101</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>156.5283879628043</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>158.8073274317979</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>145.2543769669952</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9674182222222</v>
+        <v>160.2613470196622</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>152.4484465568465</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8692,22 +8692,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
-        <v>155.446919716826</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L11" t="n">
-        <v>147.3707510144273</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M11" t="n">
-        <v>124.9513722903362</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N11" t="n">
-        <v>121.2875128719083</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O11" t="n">
-        <v>130.9617113403306</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P11" t="n">
-        <v>154.2891756195906</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q11" t="n">
         <v>137.5801139476182</v>
@@ -8771,25 +8771,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>91.37295083848241</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L12" t="n">
-        <v>65.7778648790954</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M12" t="n">
-        <v>52.90574741875142</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N12" t="n">
-        <v>36.54989725098959</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>60.81798522344046</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P12" t="n">
-        <v>72.63638163373737</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.0720830017077</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8853,16 +8853,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>105.2836065989273</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M13" t="n">
-        <v>106.9915434517933</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N13" t="n">
-        <v>94.76451196388629</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O13" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
@@ -8929,22 +8929,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L14" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M14" t="n">
-        <v>105.8098167320196</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N14" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O14" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P14" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q14" t="n">
         <v>137.5801139476182</v>
@@ -9008,25 +9008,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L15" t="n">
-        <v>53.11358071497432</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M15" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N15" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>46.94061075518317</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P15" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9090,16 +9090,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>98.0136535584747</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M16" t="n">
-        <v>99.32639729326793</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N16" t="n">
-        <v>87.28162584856661</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O16" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P16" t="n">
         <v>87.48425302749862</v>
@@ -9166,22 +9166,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K17" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L17" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M17" t="n">
-        <v>105.8098167320196</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N17" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O17" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P17" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q17" t="n">
         <v>137.5801139476182</v>
@@ -9245,25 +9245,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L18" t="n">
-        <v>53.11358071497432</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M18" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N18" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>46.94061075518317</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P18" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q18" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9327,16 +9327,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>98.0136535584747</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M19" t="n">
-        <v>99.32639729326793</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N19" t="n">
-        <v>87.28162584856661</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O19" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P19" t="n">
         <v>87.48425302749862</v>
@@ -9403,22 +9403,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K20" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L20" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M20" t="n">
-        <v>105.8098167320196</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N20" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O20" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P20" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q20" t="n">
         <v>137.5801139476182</v>
@@ -9482,25 +9482,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L21" t="n">
-        <v>53.11358071497432</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M21" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N21" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>46.94061075518317</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P21" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9564,16 +9564,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>98.0136535584747</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M22" t="n">
-        <v>99.32639729326793</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N22" t="n">
-        <v>87.28162584856661</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O22" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P22" t="n">
         <v>87.48425302749862</v>
@@ -9640,22 +9640,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K23" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L23" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M23" t="n">
-        <v>105.8098167320196</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N23" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O23" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P23" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q23" t="n">
         <v>137.5801139476182</v>
@@ -9719,25 +9719,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L24" t="n">
-        <v>53.11358071497432</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M24" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N24" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>46.94061075518317</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P24" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9801,16 +9801,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>98.0136535584747</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M25" t="n">
-        <v>99.32639729326793</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N25" t="n">
-        <v>87.28162584856661</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O25" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P25" t="n">
         <v>87.48425302749862</v>
@@ -9877,22 +9877,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K26" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L26" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M26" t="n">
-        <v>105.8098167320196</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N26" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O26" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P26" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q26" t="n">
         <v>137.5801139476182</v>
@@ -9956,25 +9956,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L27" t="n">
-        <v>53.11358071497432</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M27" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N27" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>46.94061075518317</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P27" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10038,16 +10038,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>98.0136535584747</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M28" t="n">
-        <v>99.32639729326793</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N28" t="n">
-        <v>87.28162584856661</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O28" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
@@ -10114,22 +10114,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K29" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L29" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M29" t="n">
-        <v>105.8098167320196</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N29" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O29" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P29" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q29" t="n">
         <v>137.5801139476182</v>
@@ -10193,25 +10193,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L30" t="n">
-        <v>53.11358071497432</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M30" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N30" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>46.94061075518317</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P30" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10275,16 +10275,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>98.0136535584747</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M31" t="n">
-        <v>99.32639729326793</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N31" t="n">
-        <v>87.28162584856661</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O31" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10351,22 +10351,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K32" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L32" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M32" t="n">
-        <v>105.8098167320196</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N32" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O32" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P32" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q32" t="n">
         <v>137.5801139476182</v>
@@ -10430,25 +10430,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L33" t="n">
-        <v>53.11358071497432</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M33" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N33" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>46.94061075518317</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P33" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10512,16 +10512,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>98.0136535584747</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M34" t="n">
-        <v>99.32639729326793</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N34" t="n">
-        <v>87.28162584856661</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O34" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P34" t="n">
         <v>87.48425302749862</v>
@@ -10588,22 +10588,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L35" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M35" t="n">
-        <v>105.8098167320196</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N35" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O35" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P35" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q35" t="n">
         <v>137.5801139476182</v>
@@ -10667,25 +10667,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L36" t="n">
-        <v>53.11358071497432</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M36" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N36" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>46.94061075518317</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P36" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10749,16 +10749,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>98.0136535584747</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M37" t="n">
-        <v>99.32639729326793</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N37" t="n">
-        <v>87.28162584856661</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O37" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10825,22 +10825,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K38" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L38" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M38" t="n">
-        <v>105.8098167320196</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N38" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O38" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P38" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
@@ -10904,25 +10904,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L39" t="n">
-        <v>53.11358071497432</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M39" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N39" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>46.94061075518317</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P39" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10986,16 +10986,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>98.0136535584747</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M40" t="n">
-        <v>99.32639729326793</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N40" t="n">
-        <v>87.28162584856661</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O40" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P40" t="n">
         <v>87.48425302749862</v>
@@ -11062,22 +11062,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>141.5801829184308</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L41" t="n">
-        <v>130.1678378352738</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M41" t="n">
-        <v>105.8098167320196</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N41" t="n">
-        <v>101.836226932778</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O41" t="n">
-        <v>112.5944136015407</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P41" t="n">
-        <v>138.613111941985</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q41" t="n">
         <v>137.5801139476182</v>
@@ -11141,25 +11141,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>81.95448906552117</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L42" t="n">
-        <v>53.11358071497432</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M42" t="n">
-        <v>38.12712513491596</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N42" t="n">
-        <v>21.38012881046407</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>46.94061075518317</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P42" t="n">
-        <v>61.49856517201626</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.6267476555289</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11223,16 +11223,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>98.0136535584747</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M43" t="n">
-        <v>99.32639729326793</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N43" t="n">
-        <v>87.28162584856661</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O43" t="n">
-        <v>105.6509998050918</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11299,22 +11299,22 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>111.0988064408343</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L44" t="n">
-        <v>92.35299496713264</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M44" t="n">
-        <v>63.73351790103578</v>
+        <v>78.83188855375113</v>
       </c>
       <c r="N44" t="n">
-        <v>59.07908959729269</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O44" t="n">
-        <v>72.2200612653113</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P44" t="n">
-        <v>104.1545363166676</v>
+        <v>116.5194153913583</v>
       </c>
       <c r="Q44" t="n">
         <v>137.5801139476182</v>
@@ -11378,25 +11378,25 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>61.25115537459055</v>
+        <v>68.68019772140313</v>
       </c>
       <c r="L45" t="n">
-        <v>25.27539361745087</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M45" t="n">
-        <v>5.64127383456389</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>16.43585092326006</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P45" t="n">
-        <v>37.01580605976547</v>
+        <v>45.80103151799199</v>
       </c>
       <c r="Q45" t="n">
-        <v>86.2606715564213</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -11460,16 +11460,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>82.03309671786837</v>
+        <v>87.76745019286051</v>
       </c>
       <c r="M46" t="n">
-        <v>82.47714074425393</v>
+        <v>88.5232124679478</v>
       </c>
       <c r="N46" t="n">
-        <v>70.83300696034803</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O46" t="n">
-        <v>90.45803797570775</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
@@ -23035,22 +23035,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>419.2448920946117</v>
+        <v>419.1372257337943</v>
       </c>
       <c r="H8" t="n">
-        <v>351.1867109187684</v>
+        <v>350.0840728010472</v>
       </c>
       <c r="I8" t="n">
-        <v>256.6898085504863</v>
+        <v>252.5390011750733</v>
       </c>
       <c r="J8" t="n">
-        <v>111.3013968910535</v>
+        <v>102.1633490996273</v>
       </c>
       <c r="K8" t="n">
-        <v>58.46339092876153</v>
+        <v>44.7678260839346</v>
       </c>
       <c r="L8" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23059,25 +23059,25 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>33.96130047619883</v>
+        <v>15.82072992502536</v>
       </c>
       <c r="P8" t="n">
-        <v>73.5786919263081</v>
+        <v>58.0961346578143</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.6328276992101</v>
+        <v>122.0060719774896</v>
       </c>
       <c r="R8" t="n">
-        <v>220.4301160555486</v>
+        <v>213.6669190178523</v>
       </c>
       <c r="S8" t="n">
-        <v>236.785106778059</v>
+        <v>234.3316595809324</v>
       </c>
       <c r="T8" t="n">
-        <v>224.246294399988</v>
+        <v>223.7749849055099</v>
       </c>
       <c r="U8" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1744657143414</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23114,16 +23114,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>148.9046118134526</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>127.2808586212757</v>
       </c>
       <c r="I9" t="n">
-        <v>114.855819447717</v>
+        <v>112.8724349482959</v>
       </c>
       <c r="J9" t="n">
-        <v>73.03491363274843</v>
+        <v>67.59235497006948</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>27.29425231795664</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>144.6542915277517</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>194.5628574600357</v>
       </c>
       <c r="T9" t="n">
-        <v>215.8480604164874</v>
+        <v>215.61586546681</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2385962954956</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23193,49 +23193,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.883215127945</v>
+        <v>168.8349197050291</v>
       </c>
       <c r="H10" t="n">
-        <v>167.4464568944399</v>
+        <v>167.0170666797881</v>
       </c>
       <c r="I10" t="n">
-        <v>170.3394424699794</v>
+        <v>168.8870673881104</v>
       </c>
       <c r="J10" t="n">
-        <v>133.1381297789385</v>
+        <v>129.7236433787886</v>
       </c>
       <c r="K10" t="n">
-        <v>88.2262143767183</v>
+        <v>82.61516433249618</v>
       </c>
       <c r="L10" t="n">
-        <v>59.27569846418345</v>
+        <v>52.09548622449577</v>
       </c>
       <c r="M10" t="n">
-        <v>53.81519614675737</v>
+        <v>46.24466908004986</v>
       </c>
       <c r="N10" t="n">
-        <v>44.43848373237326</v>
+        <v>37.04796687835205</v>
       </c>
       <c r="O10" t="n">
-        <v>63.26597710615634</v>
+        <v>56.43963860165199</v>
       </c>
       <c r="P10" t="n">
-        <v>80.54391191246145</v>
+        <v>74.70280003544025</v>
       </c>
       <c r="Q10" t="n">
-        <v>142.493864959141</v>
+        <v>138.4497818638882</v>
       </c>
       <c r="R10" t="n">
-        <v>211.6331360021768</v>
+        <v>209.4615981681609</v>
       </c>
       <c r="S10" t="n">
-        <v>238.6174795018098</v>
+        <v>237.7758219951765</v>
       </c>
       <c r="T10" t="n">
-        <v>224.541075671891</v>
+        <v>224.3347225012506</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6638739564498</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -23272,16 +23272,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>418.3560606053038</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H11" t="n">
-        <v>342.0839654288939</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I11" t="n">
-        <v>222.4231325589433</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J11" t="n">
-        <v>35.86293527540671</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>37.64902620821118</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R11" t="n">
-        <v>164.5970550153109</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S11" t="n">
-        <v>216.5308592154551</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T11" t="n">
-        <v>220.3554345555427</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U11" t="n">
-        <v>250.1119725040622</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23351,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.4866516222985</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H12" t="n">
-        <v>123.2442430909186</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I12" t="n">
-        <v>98.4821388932082</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J12" t="n">
-        <v>28.10428269966904</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.7040965015325</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S12" t="n">
-        <v>186.7994302252209</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T12" t="n">
-        <v>213.9311925910615</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2110989144986</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23430,19 +23430,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.4845159209583</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H13" t="n">
-        <v>163.9016584905037</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I13" t="n">
-        <v>158.3494699544163</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J13" t="n">
-        <v>104.9500958449802</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K13" t="n">
-        <v>41.90461560135667</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23454,25 +23454,25 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>6.911656467711651</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>32.3230550965451</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q13" t="n">
-        <v>109.1082431813745</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R13" t="n">
-        <v>193.7061698407575</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S13" t="n">
-        <v>231.6692396855056</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T13" t="n">
-        <v>222.8375426965842</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6447610227732</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23509,16 +23509,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H14" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I14" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J14" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>25.87695523201987</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R14" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S14" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T14" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U14" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23588,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H15" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I15" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J15" t="n">
-        <v>22.59370103762818</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S15" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T15" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23667,19 +23667,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H16" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I16" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J16" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K16" t="n">
-        <v>36.22343669362867</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,22 +23694,22 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R16" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S16" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T16" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23746,16 +23746,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H17" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I17" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J17" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>25.87695523201987</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R17" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S17" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T17" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23825,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H18" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I18" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J18" t="n">
-        <v>22.59370103762818</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S18" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T18" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23904,19 +23904,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H19" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I19" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J19" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K19" t="n">
-        <v>36.22343669362867</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23931,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q19" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R19" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S19" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T19" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23983,16 +23983,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H20" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I20" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J20" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>25.87695523201987</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R20" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S20" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T20" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24062,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H21" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I21" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J21" t="n">
-        <v>22.59370103762818</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S21" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T21" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24141,19 +24141,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H22" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I22" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J22" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K22" t="n">
-        <v>36.22343669362867</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24168,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q22" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R22" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S22" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T22" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24220,16 +24220,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H23" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I23" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J23" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>25.87695523201987</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R23" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S23" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T23" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24299,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H24" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I24" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J24" t="n">
-        <v>22.59370103762818</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S24" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T24" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24378,19 +24378,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H25" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I25" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J25" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K25" t="n">
-        <v>36.22343669362867</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24405,22 +24405,22 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q25" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R25" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S25" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T25" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24457,16 +24457,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H26" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I26" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J26" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>25.87695523201987</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R26" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S26" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T26" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24536,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H27" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I27" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J27" t="n">
-        <v>22.59370103762818</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S27" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T27" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24615,19 +24615,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H28" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I28" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J28" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K28" t="n">
-        <v>36.22343669362867</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24642,22 +24642,22 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q28" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R28" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S28" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T28" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24694,16 +24694,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H29" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I29" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J29" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>25.87695523201987</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R29" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S29" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T29" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24773,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H30" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I30" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J30" t="n">
-        <v>22.59370103762818</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S30" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T30" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24852,19 +24852,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H31" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I31" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J31" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K31" t="n">
-        <v>36.22343669362867</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24879,22 +24879,22 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q31" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R31" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S31" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T31" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24931,16 +24931,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H32" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I32" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J32" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>25.87695523201987</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R32" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S32" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T32" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25010,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H33" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I33" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J33" t="n">
-        <v>22.59370103762818</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S33" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T33" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25089,19 +25089,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H34" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I34" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J34" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K34" t="n">
-        <v>36.22343669362867</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25116,22 +25116,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R34" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S34" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T34" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25168,16 +25168,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H35" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I35" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J35" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>25.87695523201987</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R35" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S35" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T35" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25247,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H36" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I36" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J36" t="n">
-        <v>22.59370103762818</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S36" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T36" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25326,19 +25326,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H37" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I37" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J37" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K37" t="n">
-        <v>36.22343669362867</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25353,22 +25353,22 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q37" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R37" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S37" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25405,16 +25405,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H38" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I38" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J38" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>25.87695523201987</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R38" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S38" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T38" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25484,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H39" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I39" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J39" t="n">
-        <v>22.59370103762818</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S39" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T39" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25563,19 +25563,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H40" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I40" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J40" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K40" t="n">
-        <v>36.22343669362867</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25590,22 +25590,22 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q40" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R40" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S40" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T40" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25642,16 +25642,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>418.2470485926989</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H41" t="n">
-        <v>340.9675461548035</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I41" t="n">
-        <v>218.2204469429915</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J41" t="n">
-        <v>26.6106769705785</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>25.87695523201987</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R41" t="n">
-        <v>157.7493291785161</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S41" t="n">
-        <v>214.0467479782201</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T41" t="n">
-        <v>219.8782344703646</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1032515430538</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25721,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.4283250534787</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H42" t="n">
-        <v>122.6809312288967</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I42" t="n">
-        <v>96.47396536147706</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J42" t="n">
-        <v>22.59370103762818</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>115.0827328690247</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S42" t="n">
-        <v>185.7160397912233</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T42" t="n">
-        <v>213.6960955877926</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2072616402341</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25800,19 +25800,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.4356168849763</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H43" t="n">
-        <v>163.4669016069546</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I43" t="n">
-        <v>156.8789425814301</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J43" t="n">
-        <v>101.4929340010521</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K43" t="n">
-        <v>36.22343669362867</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,22 +25827,22 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>26.40893896286644</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q43" t="n">
-        <v>105.0136157229173</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R43" t="n">
-        <v>191.50749136833</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S43" t="n">
-        <v>230.8170628493464</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T43" t="n">
-        <v>222.6286104519338</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6420938026287</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25879,16 +25879,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>418.0074221942822</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H44" t="n">
-        <v>338.5134723020187</v>
+        <v>339.3940753414476</v>
       </c>
       <c r="I44" t="n">
-        <v>208.9822502180322</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J44" t="n">
-        <v>6.272685937960304</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.285509237068553</v>
       </c>
       <c r="R44" t="n">
-        <v>142.6968974289739</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S44" t="n">
-        <v>208.5862614242999</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T44" t="n">
-        <v>218.8292699112955</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0840814311804</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25958,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.3001136271938</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H45" t="n">
-        <v>121.4426787697765</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I45" t="n">
-        <v>92.05966844771967</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J45" t="n">
-        <v>10.48053290778771</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>107.1223778230184</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S45" t="n">
-        <v>183.3345687810625</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T45" t="n">
-        <v>213.1793135669336</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1988266779785</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26037,19 +26037,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.3281287320799</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H46" t="n">
-        <v>162.5112342112035</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I46" t="n">
-        <v>153.6464806743293</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J46" t="n">
-        <v>93.89352159128109</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K46" t="n">
-        <v>23.73526765712697</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26064,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>13.40873545256763</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.01294866538856</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R46" t="n">
-        <v>186.6744331481002</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S46" t="n">
-        <v>228.9438374938711</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T46" t="n">
-        <v>222.1693428895585</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6362308124707</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>338464.1992716803</v>
+        <v>352174.3601273391</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>404600.4499291928</v>
+        <v>414400.7131205507</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>408823.2298473756</v>
+        <v>414400.7131205507</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>408823.2298473756</v>
+        <v>414400.7131205507</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>408823.2298473756</v>
+        <v>414400.7131205507</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>408823.2298473756</v>
+        <v>414400.7131205507</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>408823.2298473756</v>
+        <v>414400.7131205507</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>408823.2298473756</v>
+        <v>414400.7131205507</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>408823.2298473756</v>
+        <v>414400.7131205507</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>408823.2298473756</v>
+        <v>414400.7131205507</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>408823.2298473756</v>
+        <v>414400.7131205507</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>408823.2298473756</v>
+        <v>414400.7131205507</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>417598.2881787008</v>
+        <v>414400.7131205507</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>63462.03736344008</v>
       </c>
       <c r="D2" t="n">
-        <v>63462.03736344008</v>
+        <v>66492.91400965815</v>
       </c>
       <c r="E2" t="n">
-        <v>79661.90798995418</v>
+        <v>82622.16948907397</v>
       </c>
       <c r="F2" t="n">
-        <v>80919.65271928947</v>
+        <v>82622.16948907397</v>
       </c>
       <c r="G2" t="n">
-        <v>80919.65271928946</v>
+        <v>82622.16948907397</v>
       </c>
       <c r="H2" t="n">
-        <v>80919.65271928946</v>
+        <v>82622.16948907397</v>
       </c>
       <c r="I2" t="n">
-        <v>80919.65271928946</v>
+        <v>82622.16948907397</v>
       </c>
       <c r="J2" t="n">
-        <v>80919.65271928947</v>
+        <v>82622.16948907397</v>
       </c>
       <c r="K2" t="n">
-        <v>80919.65271928946</v>
+        <v>82622.16948907397</v>
       </c>
       <c r="L2" t="n">
-        <v>80919.65271928946</v>
+        <v>82622.16948907397</v>
       </c>
       <c r="M2" t="n">
-        <v>80919.65271928949</v>
+        <v>82622.16948907397</v>
       </c>
       <c r="N2" t="n">
-        <v>80919.65271928946</v>
+        <v>82622.16948907397</v>
       </c>
       <c r="O2" t="n">
-        <v>80919.65271928946</v>
+        <v>82622.16948907396</v>
       </c>
       <c r="P2" t="n">
-        <v>83574.99392625131</v>
+        <v>82622.16948907397</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22936.48595985283</v>
       </c>
       <c r="E3" t="n">
-        <v>177629.858894854</v>
+        <v>208603.29913071</v>
       </c>
       <c r="F3" t="n">
-        <v>21434.29007549785</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39673.03296345526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31731.01868172004</v>
+        <v>31731.01868172003</v>
       </c>
       <c r="C4" t="n">
-        <v>31731.01868172004</v>
+        <v>31731.01868172003</v>
       </c>
       <c r="D4" t="n">
-        <v>31731.01868172004</v>
+        <v>30791.94241399147</v>
       </c>
       <c r="E4" t="n">
-        <v>19567.89464441427</v>
+        <v>15060.2272566931</v>
       </c>
       <c r="F4" t="n">
-        <v>17711.57503747645</v>
+        <v>15060.2272566931</v>
       </c>
       <c r="G4" t="n">
-        <v>17711.57503747645</v>
+        <v>15060.2272566931</v>
       </c>
       <c r="H4" t="n">
-        <v>17711.57503747645</v>
+        <v>15060.2272566931</v>
       </c>
       <c r="I4" t="n">
-        <v>17711.57503747645</v>
+        <v>15060.2272566931</v>
       </c>
       <c r="J4" t="n">
-        <v>17711.57503747645</v>
+        <v>15060.2272566931</v>
       </c>
       <c r="K4" t="n">
-        <v>17711.57503747645</v>
+        <v>15060.2272566931</v>
       </c>
       <c r="L4" t="n">
-        <v>17711.57503747645</v>
+        <v>15060.2272566931</v>
       </c>
       <c r="M4" t="n">
-        <v>17711.57503747645</v>
+        <v>15060.2272566931</v>
       </c>
       <c r="N4" t="n">
-        <v>17711.57503747645</v>
+        <v>15060.2272566931</v>
       </c>
       <c r="O4" t="n">
-        <v>17711.57503747645</v>
+        <v>15060.2272566931</v>
       </c>
       <c r="P4" t="n">
-        <v>13652.4842018192</v>
+        <v>15060.2272566931</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>34211.44775812258</v>
       </c>
       <c r="E5" t="n">
-        <v>4819.910958644438</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="F5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="G5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="H5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="I5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="J5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="K5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="L5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="M5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="N5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="O5" t="n">
-        <v>5411.055849997857</v>
+        <v>6244.209893998943</v>
       </c>
       <c r="P5" t="n">
-        <v>6710.48990201194</v>
+        <v>6244.209893998943</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1896.581318279954</v>
+        <v>-18701.04192612334</v>
       </c>
       <c r="C6" t="n">
-        <v>-1896.581318279954</v>
+        <v>-18701.04192612334</v>
       </c>
       <c r="D6" t="n">
-        <v>-1896.581318279954</v>
+        <v>-37998.8496763006</v>
       </c>
       <c r="E6" t="n">
-        <v>-122355.7565079585</v>
+        <v>-162493.3497230353</v>
       </c>
       <c r="F6" t="n">
-        <v>36362.73175631732</v>
+        <v>46109.94940767471</v>
       </c>
       <c r="G6" t="n">
-        <v>57797.02183181515</v>
+        <v>46109.94940767471</v>
       </c>
       <c r="H6" t="n">
-        <v>57797.02183181515</v>
+        <v>46109.94940767471</v>
       </c>
       <c r="I6" t="n">
-        <v>57797.02183181515</v>
+        <v>46109.94940767471</v>
       </c>
       <c r="J6" t="n">
-        <v>57797.02183181517</v>
+        <v>46109.94940767471</v>
       </c>
       <c r="K6" t="n">
-        <v>57797.02183181515</v>
+        <v>46109.94940767471</v>
       </c>
       <c r="L6" t="n">
-        <v>57797.02183181515</v>
+        <v>46109.94940767471</v>
       </c>
       <c r="M6" t="n">
-        <v>57797.02183181518</v>
+        <v>46109.94940767471</v>
       </c>
       <c r="N6" t="n">
-        <v>57797.02183181515</v>
+        <v>46109.94940767471</v>
       </c>
       <c r="O6" t="n">
-        <v>57797.02183181515</v>
+        <v>46109.94940767468</v>
       </c>
       <c r="P6" t="n">
-        <v>23538.9868589649</v>
+        <v>46109.94940767471</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="E3" t="n">
-        <v>221.0968329653412</v>
+        <v>286.431646513713</v>
       </c>
       <c r="F3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="G3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="H3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="I3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="J3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="K3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="L3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="M3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="N3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="O3" t="n">
-        <v>248.2135711008191</v>
+        <v>286.431646513713</v>
       </c>
       <c r="P3" t="n">
-        <v>307.8206377069697</v>
+        <v>286.431646513713</v>
       </c>
     </row>
     <row r="4">
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>26.78200725332938</v>
       </c>
       <c r="E3" t="n">
-        <v>221.0968329653412</v>
+        <v>259.6496392603836</v>
       </c>
       <c r="F3" t="n">
-        <v>27.11673813547793</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>59.60706660615057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.1076663608174045</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.102638117721244</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4.150807375412989</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>9.138047791426191</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>13.69556484482692</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>18.90527087887908</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>19.21117792655154</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>18.14057055117347</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>15.48255726849379</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>11.62675572172049</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.76319703769629</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.453447197126607</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4713094944781883</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.008613308865392355</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.05760658163923679</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.55635830162105</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.983384499421091</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>5.442558662678946</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>9.30219963250781</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>12.50795536864218</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>14.59619395306451</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>14.9825117746715</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>13.70607120255999</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>11.00033048863637</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>7.353429614159418</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.576661270548404</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.070016987904244</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.2321949496774499</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003789906686791895</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04829542291583986</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.4293902146517402</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.452375081869075</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.414486400149878</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>5.611050044222121</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>7.180212239687683</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>7.570527066707514</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>7.390516854021208</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>6.826338504504349</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.841111877021211</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>4.044083095252736</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>2.171537834015854</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.8416575066333181</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.2063531706404066</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.00263429579540945</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8888314893079037</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H11" t="n">
-        <v>9.102745489874572</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I11" t="n">
-        <v>34.26667599154299</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J11" t="n">
-        <v>75.43846161564676</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K11" t="n">
-        <v>113.0626985580503</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L11" t="n">
-        <v>140.2642752489571</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M11" t="n">
-        <v>156.0710322469366</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N11" t="n">
-        <v>158.5964247159326</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O11" t="n">
-        <v>149.7581065941272</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P11" t="n">
-        <v>127.8150792018383</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.98380149099896</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R11" t="n">
-        <v>55.83306104023765</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S11" t="n">
-        <v>20.25424756260388</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T11" t="n">
-        <v>3.89085984444535</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07110651914463229</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4755667727933754</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H12" t="n">
-        <v>4.592973831978127</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I12" t="n">
-        <v>16.37368055450876</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J12" t="n">
-        <v>44.93063093307939</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K12" t="n">
-        <v>76.79360471023554</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L12" t="n">
-        <v>103.2584784523511</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M12" t="n">
-        <v>120.4977739661109</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N12" t="n">
-        <v>123.6869914906771</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
-        <v>113.1494329987817</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P12" t="n">
-        <v>90.81239541174553</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q12" t="n">
-        <v>60.7056813832386</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R12" t="n">
-        <v>29.52685629676765</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S12" t="n">
-        <v>8.83344422271905</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T12" t="n">
-        <v>1.916867825425929</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03128728768377471</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3986992069866808</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H13" t="n">
-        <v>3.544798403936128</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I13" t="n">
-        <v>11.9899725155631</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J13" t="n">
-        <v>28.18803393395833</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K13" t="n">
-        <v>46.32159877536164</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L13" t="n">
-        <v>59.27569846418345</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M13" t="n">
-        <v>62.49791296428488</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N13" t="n">
-        <v>61.01185228369821</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O13" t="n">
-        <v>56.35432063844469</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P13" t="n">
-        <v>48.22085681591636</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.38562177776652</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R13" t="n">
-        <v>17.9269661614193</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S13" t="n">
-        <v>6.948239816304245</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T13" t="n">
-        <v>1.703532975306727</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0217472294720008</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.99784350191284</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H14" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I14" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J14" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K14" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L14" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M14" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N14" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O14" t="n">
-        <v>168.1254043329172</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P14" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q14" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R14" t="n">
-        <v>62.68078687703249</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S14" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T14" t="n">
-        <v>4.36805992962346</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H15" t="n">
-        <v>5.156285694000037</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I15" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J15" t="n">
-        <v>50.44121259512025</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K15" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L15" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M15" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N15" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O15" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P15" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R15" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S15" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T15" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03512456194822914</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H16" t="n">
-        <v>3.979555287485267</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I16" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J16" t="n">
-        <v>31.6451957778864</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K16" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L16" t="n">
-        <v>66.54565150463601</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M16" t="n">
-        <v>70.16305912281022</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N16" t="n">
-        <v>68.49473839901789</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O16" t="n">
-        <v>63.26597710615634</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P16" t="n">
-        <v>54.13497294959502</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.48024923622369</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R16" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S16" t="n">
-        <v>7.800416652463444</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T16" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.99784350191284</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H17" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I17" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J17" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K17" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L17" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M17" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N17" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O17" t="n">
-        <v>168.1254043329172</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P17" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q17" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R17" t="n">
-        <v>62.68078687703249</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S17" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T17" t="n">
-        <v>4.36805992962346</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H18" t="n">
-        <v>5.156285694000037</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I18" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J18" t="n">
-        <v>50.44121259512025</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K18" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L18" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M18" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N18" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O18" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P18" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R18" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S18" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T18" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03512456194822914</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H19" t="n">
-        <v>3.979555287485267</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I19" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J19" t="n">
-        <v>31.6451957778864</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K19" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L19" t="n">
-        <v>66.54565150463601</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M19" t="n">
-        <v>70.16305912281022</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N19" t="n">
-        <v>68.49473839901789</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O19" t="n">
-        <v>63.26597710615634</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P19" t="n">
-        <v>54.13497294959502</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.48024923622369</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R19" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S19" t="n">
-        <v>7.800416652463444</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T19" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.99784350191284</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H20" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I20" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J20" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K20" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L20" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M20" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N20" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O20" t="n">
-        <v>168.1254043329172</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P20" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q20" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R20" t="n">
-        <v>62.68078687703249</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S20" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T20" t="n">
-        <v>4.36805992962346</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H21" t="n">
-        <v>5.156285694000037</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I21" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J21" t="n">
-        <v>50.44121259512025</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K21" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L21" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M21" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N21" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P21" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R21" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S21" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T21" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03512456194822914</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H22" t="n">
-        <v>3.979555287485267</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I22" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J22" t="n">
-        <v>31.6451957778864</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K22" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L22" t="n">
-        <v>66.54565150463601</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M22" t="n">
-        <v>70.16305912281022</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N22" t="n">
-        <v>68.49473839901789</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O22" t="n">
-        <v>63.26597710615634</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P22" t="n">
-        <v>54.13497294959502</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.48024923622369</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R22" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S22" t="n">
-        <v>7.800416652463444</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T22" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.99784350191284</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H23" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I23" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J23" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K23" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L23" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M23" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N23" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O23" t="n">
-        <v>168.1254043329172</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P23" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q23" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R23" t="n">
-        <v>62.68078687703249</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S23" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T23" t="n">
-        <v>4.36805992962346</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H24" t="n">
-        <v>5.156285694000037</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I24" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J24" t="n">
-        <v>50.44121259512025</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K24" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L24" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M24" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N24" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O24" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P24" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q24" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R24" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S24" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T24" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03512456194822914</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H25" t="n">
-        <v>3.979555287485267</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I25" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J25" t="n">
-        <v>31.6451957778864</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K25" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L25" t="n">
-        <v>66.54565150463601</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M25" t="n">
-        <v>70.16305912281022</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N25" t="n">
-        <v>68.49473839901789</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O25" t="n">
-        <v>63.26597710615634</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P25" t="n">
-        <v>54.13497294959502</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.48024923622369</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R25" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S25" t="n">
-        <v>7.800416652463444</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T25" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.99784350191284</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H26" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I26" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J26" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K26" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L26" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M26" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N26" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O26" t="n">
-        <v>168.1254043329172</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P26" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q26" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R26" t="n">
-        <v>62.68078687703249</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S26" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T26" t="n">
-        <v>4.36805992962346</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H27" t="n">
-        <v>5.156285694000037</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I27" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J27" t="n">
-        <v>50.44121259512025</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K27" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L27" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M27" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N27" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P27" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q27" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R27" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S27" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T27" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03512456194822914</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H28" t="n">
-        <v>3.979555287485267</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I28" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J28" t="n">
-        <v>31.6451957778864</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K28" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L28" t="n">
-        <v>66.54565150463601</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M28" t="n">
-        <v>70.16305912281022</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N28" t="n">
-        <v>68.49473839901789</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O28" t="n">
-        <v>63.26597710615634</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P28" t="n">
-        <v>54.13497294959502</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.48024923622369</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R28" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S28" t="n">
-        <v>7.800416652463444</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T28" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.99784350191284</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H29" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I29" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J29" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K29" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L29" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M29" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N29" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O29" t="n">
-        <v>168.1254043329172</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P29" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q29" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R29" t="n">
-        <v>62.68078687703249</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S29" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T29" t="n">
-        <v>4.36805992962346</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U29" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H30" t="n">
-        <v>5.156285694000037</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I30" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J30" t="n">
-        <v>50.44121259512025</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K30" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L30" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M30" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N30" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O30" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P30" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q30" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R30" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S30" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T30" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03512456194822914</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H31" t="n">
-        <v>3.979555287485267</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I31" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J31" t="n">
-        <v>31.6451957778864</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K31" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L31" t="n">
-        <v>66.54565150463601</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M31" t="n">
-        <v>70.16305912281022</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N31" t="n">
-        <v>68.49473839901789</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O31" t="n">
-        <v>63.26597710615634</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P31" t="n">
-        <v>54.13497294959502</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.48024923622369</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R31" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S31" t="n">
-        <v>7.800416652463444</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T31" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.99784350191284</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H32" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I32" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J32" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K32" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L32" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M32" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N32" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O32" t="n">
-        <v>168.1254043329172</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P32" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q32" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R32" t="n">
-        <v>62.68078687703249</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S32" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T32" t="n">
-        <v>4.36805992962346</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U32" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H33" t="n">
-        <v>5.156285694000037</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I33" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J33" t="n">
-        <v>50.44121259512025</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K33" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L33" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M33" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N33" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O33" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P33" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q33" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R33" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S33" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T33" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03512456194822914</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H34" t="n">
-        <v>3.979555287485267</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I34" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J34" t="n">
-        <v>31.6451957778864</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K34" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L34" t="n">
-        <v>66.54565150463601</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M34" t="n">
-        <v>70.16305912281022</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N34" t="n">
-        <v>68.49473839901789</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O34" t="n">
-        <v>63.26597710615634</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P34" t="n">
-        <v>54.13497294959502</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.48024923622369</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R34" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S34" t="n">
-        <v>7.800416652463444</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T34" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.99784350191284</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H35" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I35" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J35" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K35" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L35" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M35" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N35" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O35" t="n">
-        <v>168.1254043329172</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P35" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q35" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R35" t="n">
-        <v>62.68078687703249</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S35" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T35" t="n">
-        <v>4.36805992962346</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U35" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H36" t="n">
-        <v>5.156285694000037</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I36" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J36" t="n">
-        <v>50.44121259512025</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K36" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L36" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M36" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N36" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O36" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P36" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q36" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R36" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S36" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T36" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03512456194822914</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H37" t="n">
-        <v>3.979555287485267</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I37" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J37" t="n">
-        <v>31.6451957778864</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K37" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L37" t="n">
-        <v>66.54565150463601</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M37" t="n">
-        <v>70.16305912281022</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N37" t="n">
-        <v>68.49473839901789</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O37" t="n">
-        <v>63.26597710615634</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P37" t="n">
-        <v>54.13497294959502</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.48024923622369</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R37" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S37" t="n">
-        <v>7.800416652463444</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T37" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.99784350191284</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H38" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I38" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J38" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K38" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L38" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M38" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N38" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O38" t="n">
-        <v>168.1254043329172</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P38" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q38" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R38" t="n">
-        <v>62.68078687703249</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S38" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T38" t="n">
-        <v>4.36805992962346</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H39" t="n">
-        <v>5.156285694000037</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I39" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J39" t="n">
-        <v>50.44121259512025</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K39" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L39" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M39" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N39" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O39" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P39" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q39" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R39" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S39" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T39" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03512456194822914</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H40" t="n">
-        <v>3.979555287485267</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I40" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J40" t="n">
-        <v>31.6451957778864</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K40" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L40" t="n">
-        <v>66.54565150463601</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M40" t="n">
-        <v>70.16305912281022</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N40" t="n">
-        <v>68.49473839901789</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O40" t="n">
-        <v>63.26597710615634</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P40" t="n">
-        <v>54.13497294959502</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.48024923622369</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R40" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S40" t="n">
-        <v>7.800416652463444</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T40" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.99784350191284</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H41" t="n">
-        <v>10.21916476396487</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I41" t="n">
-        <v>38.4693616074948</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J41" t="n">
-        <v>84.69071992047498</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K41" t="n">
-        <v>126.9294353564455</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L41" t="n">
-        <v>157.4671884281106</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M41" t="n">
-        <v>175.2125878052531</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N41" t="n">
-        <v>178.047710655063</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O41" t="n">
-        <v>168.1254043329172</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P41" t="n">
-        <v>143.4911428794439</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q41" t="n">
-        <v>107.7558724671903</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R41" t="n">
-        <v>62.68078687703249</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S41" t="n">
-        <v>22.73835879983886</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T41" t="n">
-        <v>4.36805992962346</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U41" t="n">
-        <v>0.07982748015302718</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5338933416130827</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H42" t="n">
-        <v>5.156285694000037</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I42" t="n">
-        <v>18.38185408623991</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J42" t="n">
-        <v>50.44121259512025</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K42" t="n">
-        <v>86.21206648319678</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L42" t="n">
-        <v>115.9227626164722</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M42" t="n">
-        <v>135.2763962499464</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N42" t="n">
-        <v>138.8567599312026</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O42" t="n">
-        <v>127.026807467039</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P42" t="n">
-        <v>101.9502118734666</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q42" t="n">
-        <v>68.15101672941736</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R42" t="n">
-        <v>33.14821992927544</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S42" t="n">
-        <v>9.916834656716683</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T42" t="n">
-        <v>2.151964828694837</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03512456194822914</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4475982429686902</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H43" t="n">
-        <v>3.979555287485267</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I43" t="n">
-        <v>13.46049988854934</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J43" t="n">
-        <v>31.6451957778864</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K43" t="n">
-        <v>52.00277768308963</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L43" t="n">
-        <v>66.54565150463601</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M43" t="n">
-        <v>70.16305912281022</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N43" t="n">
-        <v>68.49473839901789</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O43" t="n">
-        <v>63.26597710615634</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P43" t="n">
-        <v>54.13497294959502</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.48024923622369</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R43" t="n">
-        <v>20.12564463384674</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S43" t="n">
-        <v>7.800416652463444</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T43" t="n">
-        <v>1.91246521995713</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02441444961647404</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.237469900329525</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H44" t="n">
-        <v>12.67323861674976</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I44" t="n">
-        <v>47.70755833245408</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J44" t="n">
-        <v>105.0287109530932</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K44" t="n">
-        <v>157.410811834042</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L44" t="n">
-        <v>195.2820312962518</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M44" t="n">
-        <v>217.288886636237</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N44" t="n">
-        <v>220.8048479905482</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O44" t="n">
-        <v>208.4997566691465</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P44" t="n">
-        <v>177.9497185047613</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q44" t="n">
-        <v>133.6328276992101</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R44" t="n">
-        <v>77.73321862657463</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S44" t="n">
-        <v>28.19884535375909</v>
+        <v>26.23944178866828</v>
       </c>
       <c r="T44" t="n">
-        <v>5.417024488692501</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09899759202636202</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6621047678980103</v>
+        <v>0.6160982585389297</v>
       </c>
       <c r="H45" t="n">
-        <v>6.394538153120259</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I45" t="n">
-        <v>22.79615099999729</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J45" t="n">
-        <v>62.55438072496072</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K45" t="n">
-        <v>106.9154001741274</v>
+        <v>99.48635782731482</v>
       </c>
       <c r="L45" t="n">
-        <v>143.7609497139956</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M45" t="n">
-        <v>167.7622475502985</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N45" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O45" t="n">
-        <v>157.5315672989621</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P45" t="n">
-        <v>126.4329709857174</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.51709282852497</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R45" t="n">
-        <v>41.10857497528174</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S45" t="n">
-        <v>12.29830566687751</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T45" t="n">
-        <v>2.668746849553822</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04355952420381649</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5550863958650273</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H46" t="n">
-        <v>4.935222683236337</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I46" t="n">
-        <v>16.6929617956501</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J46" t="n">
-        <v>39.24460818765743</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K46" t="n">
-        <v>64.49094671959134</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L46" t="n">
-        <v>82.52620834524234</v>
+        <v>76.79185487025021</v>
       </c>
       <c r="M46" t="n">
-        <v>87.01231567182423</v>
+        <v>80.96624394813036</v>
       </c>
       <c r="N46" t="n">
-        <v>84.94335728723647</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O46" t="n">
-        <v>78.45893893554043</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P46" t="n">
-        <v>67.13517645989383</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.48091629375242</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R46" t="n">
-        <v>24.95870285407658</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S46" t="n">
-        <v>9.6736420079387</v>
+        <v>9.001466661750614</v>
       </c>
       <c r="T46" t="n">
-        <v>2.371732782332388</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03027743977445607</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
